--- a/src/attributions/attributions_saliency_traj_103.xlsx
+++ b/src/attributions/attributions_saliency_traj_103.xlsx
@@ -1004,1140 +1004,1140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001034475862979889</v>
+        <v>0.0268863532692194</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00235965009778738</v>
+        <v>0.1753063946962357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004113970207981765</v>
+        <v>0.008310985751450062</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001598246861249208</v>
+        <v>0.06105394661426544</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00304356892593205</v>
+        <v>0.0104658417403698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003280954842921346</v>
+        <v>0.07797993719577789</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001595619833096862</v>
+        <v>0.006958321668207645</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008390886941924691</v>
+        <v>0.0283706858754158</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002486046636477113</v>
+        <v>0.0092172771692276</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008241262985393405</v>
+        <v>0.04950597882270813</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006749134045094252</v>
+        <v>0.1201258450746536</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002042994601652026</v>
+        <v>0.007375160697847605</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006992407143115997</v>
+        <v>0.06010277941823006</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003116913139820099</v>
+        <v>0.02192156761884689</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004779033188242465</v>
+        <v>0.09792645275592804</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0002963558072224259</v>
+        <v>0.003191792871803045</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0005190970259718597</v>
+        <v>0.002077457495033741</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002298472914844751</v>
+        <v>0.007465370930731297</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0008444080594927073</v>
+        <v>0.005334487184882164</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0004363483167253435</v>
+        <v>0.01300725527107716</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001061905932147056</v>
+        <v>0.01030050124973059</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001050023711286485</v>
+        <v>0.02256864309310913</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002379401121288538</v>
+        <v>0.01119558792561293</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0009731967002153397</v>
+        <v>0.003416293766349554</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001127422438003123</v>
+        <v>0.01557130552828312</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0006076529971323907</v>
+        <v>0.0148049034178257</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0003666637348942459</v>
+        <v>0.01456879638135433</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.000116323892143555</v>
+        <v>0.003411987796425819</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0008675804128870368</v>
+        <v>0.02780670486390591</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0001263246958842501</v>
+        <v>0.005514866672456264</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0007490845746360719</v>
+        <v>0.003016955917701125</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0007662707939743996</v>
+        <v>0.002115145325660706</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0006919268635101616</v>
+        <v>0.001433868892490864</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.001126766670495272</v>
+        <v>0.008412604220211506</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0002605496265459806</v>
+        <v>0.0008510740008205175</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.001969617325812578</v>
+        <v>0.0007867314852774143</v>
       </c>
       <c r="AK2" t="n">
-        <v>6.26917535555549e-05</v>
+        <v>0.0207611508667469</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0002558970008976758</v>
+        <v>0.01596589386463165</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0007073259330354631</v>
+        <v>0.001427962677553296</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0006688726134598255</v>
+        <v>0.01888728886842728</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0001227008615387604</v>
+        <v>0.006121499463915825</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.001942152273841202</v>
+        <v>0.02960142120718956</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0003110679099336267</v>
+        <v>0.0005488740280270576</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.000750252977013588</v>
+        <v>0.0100045520812273</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0006277492502704263</v>
+        <v>0.01132821477949619</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.814144530333579e-05</v>
+        <v>0.001727644121274352</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.001091355923563242</v>
+        <v>0.121239647269249</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.000153353059431538</v>
+        <v>0.007283422630280256</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0007274354575201869</v>
+        <v>0.01814388297498226</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.001593764522112906</v>
+        <v>0.01020049396902323</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.002185371471568942</v>
+        <v>0.02998588234186172</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0007770291995257139</v>
+        <v>0.0146725382655859</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0004688345070462674</v>
+        <v>0.01098134741187096</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.001323828822933137</v>
+        <v>0.01757886633276939</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0004248192126397043</v>
+        <v>0.003008365631103516</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.00148265459574759</v>
+        <v>0.03481994196772575</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0002131724759237841</v>
+        <v>0.03949647769331932</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0002965656749438494</v>
+        <v>0.005186699330806732</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0004745942424051464</v>
+        <v>0.03046664223074913</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.502932511561085e-05</v>
+        <v>0.02456249669194221</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.001541937235742807</v>
+        <v>0.001189202768728137</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0006940433522686362</v>
+        <v>0.02159274183213711</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0001528101420262828</v>
+        <v>0.000474933534860611</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0003119445755146444</v>
+        <v>0.01693455316126347</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.001527069951407611</v>
+        <v>0.03317045047879219</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0005714477738365531</v>
+        <v>0.0115389246493578</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0006946211215108633</v>
+        <v>0.02965056151151657</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0003464245237410069</v>
+        <v>0.02543681301176548</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.001018664566799998</v>
+        <v>0.007026887033134699</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0006390187190845609</v>
+        <v>0.008834582753479481</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0007597681251354516</v>
+        <v>0.002128439489752054</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0007667436148039997</v>
+        <v>0.01004216447472572</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0006004880415275693</v>
+        <v>0.004773027263581753</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0008445918210782111</v>
+        <v>0.05940632522106171</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.001288364641368389</v>
+        <v>0.009080498479306698</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0007447070674970746</v>
+        <v>0.01543557271361351</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001015984336845577</v>
+        <v>0.002319151302799582</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001704792812233791</v>
+        <v>0.005091675091534853</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0002126172184944153</v>
+        <v>0.002815908519551158</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.000870618037879467</v>
+        <v>0.002989085391163826</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.001882993499748409</v>
+        <v>0.01481910981237888</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0003905257908627391</v>
+        <v>0.01129388902336359</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.111576395691372e-05</v>
+        <v>0.02889261022210121</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0001513570750830695</v>
+        <v>0.01459143124520779</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.000276112143183127</v>
+        <v>0.001673360355198383</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0004851020057685673</v>
+        <v>0.005106104537844658</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0006274826009757817</v>
+        <v>0.01287831552326679</v>
       </c>
       <c r="CJ2" t="n">
-        <v>7.789039227645844e-05</v>
+        <v>0.00306096114218235</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0006027434719726443</v>
+        <v>0.008167969062924385</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0002293773868586868</v>
+        <v>0.007191664073616266</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0001113751131924801</v>
+        <v>0.01855961978435516</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.001377559616230428</v>
+        <v>0.00793143454939127</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0005441862158477306</v>
+        <v>0.01179906073957682</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0003822465660050511</v>
+        <v>0.02289148792624474</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0002690520195756108</v>
+        <v>0.0132027231156826</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0006197731127031147</v>
+        <v>0.02564080432057381</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.523076545912772e-05</v>
+        <v>0.02050601877272129</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0009616861934773624</v>
+        <v>0.01320715807378292</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0002842886315193027</v>
+        <v>0.0063817473128438</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0005177230923436582</v>
+        <v>0.008993021212518215</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0002170615480281413</v>
+        <v>0.02143792249262333</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0002290806150995195</v>
+        <v>0.01609250158071518</v>
       </c>
       <c r="CY2" t="n">
-        <v>9.510794188827276e-05</v>
+        <v>0.01260100863873959</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0007588232401758432</v>
+        <v>0.007730437442660332</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0008126396569423378</v>
+        <v>0.01361095439642668</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0001943747483892366</v>
+        <v>0.002631185576319695</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0005978032713755965</v>
+        <v>0.0121241994202137</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0005341850919649005</v>
+        <v>0.002511384198442101</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0006267827702686191</v>
+        <v>0.013380809687078</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.001040375675074756</v>
+        <v>0.01647394150495529</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.000713500427082181</v>
+        <v>0.0001415280275978148</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.001997624989598989</v>
+        <v>0.03040850535035133</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0006080794264562428</v>
+        <v>0.01133615989238024</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.000762991257943213</v>
+        <v>0.002357693389058113</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.001565168844535947</v>
+        <v>0.01310662366449833</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001811100519262254</v>
+        <v>0.01620033942162991</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0002368371788179502</v>
+        <v>0.00116644985973835</v>
       </c>
       <c r="DN2" t="n">
-        <v>7.602947880513966e-05</v>
+        <v>0.01680875569581985</v>
       </c>
       <c r="DO2" t="n">
-        <v>3.719906089827418e-05</v>
+        <v>0.01165830250829458</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0002415942144580185</v>
+        <v>0.01911496929824352</v>
       </c>
       <c r="DQ2" t="n">
-        <v>9.653263259679079e-05</v>
+        <v>0.0002584583126008511</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0002810220757964998</v>
+        <v>0.001377814449369907</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.000205827847821638</v>
+        <v>0.01930505782365799</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0004650505725294352</v>
+        <v>0.003258603624999523</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0004855964798480272</v>
+        <v>0.008571740239858627</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0008182574529200792</v>
+        <v>0.01004131138324738</v>
       </c>
       <c r="DW2" t="n">
-        <v>9.537034202367067e-05</v>
+        <v>0.007612871006131172</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0004408180539030582</v>
+        <v>0.008678496815264225</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0002203211770392954</v>
+        <v>0.03297672048211098</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0006299498490989208</v>
+        <v>0.003250469919294119</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0003438262501731515</v>
+        <v>0.007446836214512587</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0003906480269506574</v>
+        <v>0.01014107652008533</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.631508348509669e-05</v>
+        <v>0.007380135823041201</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0009276108467020094</v>
+        <v>0.009657674469053745</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0009343615965917706</v>
+        <v>0.00179728795774281</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0005585819017142057</v>
+        <v>0.001111218240112066</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0003572773421183228</v>
+        <v>0.01416660193353891</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0003119368047919124</v>
+        <v>0.003931957762688398</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.000338651763740927</v>
+        <v>0.01013157144188881</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0007612550398334861</v>
+        <v>0.007550643291324377</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.967239950317889e-05</v>
+        <v>0.008936039172112942</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.001067662378773093</v>
+        <v>0.003977584652602673</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0001006076781777665</v>
+        <v>0.005758760962635279</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0004028801922686398</v>
+        <v>0.003773980541154742</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.102624269668013e-05</v>
+        <v>0.008854443207383156</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0006973036797717214</v>
+        <v>0.01700196415185928</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0006824243464507163</v>
+        <v>0.003384536365047097</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0007607094012200832</v>
+        <v>0.02058381214737892</v>
       </c>
       <c r="ES2" t="n">
-        <v>8.60423460835591e-05</v>
+        <v>0.007937084883451462</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.001498924801126122</v>
+        <v>0.03706385940313339</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0005985011230222881</v>
+        <v>0.01300663501024246</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0007334084366448224</v>
+        <v>0.03669976815581322</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0003925131168216467</v>
+        <v>0.00211803731508553</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0003871334483847022</v>
+        <v>0.009079968556761742</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0002273726277053356</v>
+        <v>0.02030074037611485</v>
       </c>
       <c r="EZ2" t="n">
-        <v>8.593384700361639e-05</v>
+        <v>0.009345059283077717</v>
       </c>
       <c r="FA2" t="n">
-        <v>3.933045809390023e-05</v>
+        <v>0.005796122830361128</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0005793407908640802</v>
+        <v>0.005764793138951063</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0006226899567991495</v>
+        <v>0.01365524716675282</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0002030993928201497</v>
+        <v>0.007938793860375881</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0005088658654130995</v>
+        <v>0.01072608679533005</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0007168222218751907</v>
+        <v>0.006450217682868242</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0003932522959075868</v>
+        <v>0.004087930079549551</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0001532921596663073</v>
+        <v>0.01370122842490673</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.000896500248927623</v>
+        <v>0.01398059166967869</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.001065369346179068</v>
+        <v>0.01543426141142845</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.001486697932705283</v>
+        <v>0.00768378609791398</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00020855717593804</v>
+        <v>0.001865833066403866</v>
       </c>
       <c r="FM2" t="n">
-        <v>6.832498183939606e-05</v>
+        <v>0.00540555827319622</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.002597021404653788</v>
+        <v>0.01695627346634865</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0006392133655026555</v>
+        <v>0.007682524621486664</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0003791263443417847</v>
+        <v>0.0168587937951088</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0008386083645746112</v>
+        <v>0.01390212308615446</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0006619121413677931</v>
+        <v>0.006773330736905336</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0005714422441087663</v>
+        <v>0.00942594837397337</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0004091289301868528</v>
+        <v>0.04466814175248146</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0006821407587267458</v>
+        <v>0.009735722094774246</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0007351200329139829</v>
+        <v>0.008176040835678577</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0007679909467697144</v>
+        <v>0.003697127802297473</v>
       </c>
       <c r="FX2" t="n">
-        <v>2.036144360317849e-05</v>
+        <v>0.004806832410395145</v>
       </c>
       <c r="FY2" t="n">
-        <v>3.297439980087802e-05</v>
+        <v>0.02044366113841534</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00087288225768134</v>
+        <v>0.008034618571400642</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0004304019385017455</v>
+        <v>0.01734697446227074</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0003825537860393524</v>
+        <v>0.006839607376605272</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0003153877332806587</v>
+        <v>0.02002980187535286</v>
       </c>
       <c r="GD2" t="n">
-        <v>6.945776112843305e-05</v>
+        <v>0.0174174215644598</v>
       </c>
       <c r="GE2" t="n">
-        <v>6.141915946500376e-05</v>
+        <v>0.05086904019117355</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0009334924397990108</v>
+        <v>0.009089330211281776</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001248524349648505</v>
+        <v>0.002964310348033905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0008619322325102985</v>
+        <v>0.004759999457746744</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004364232998341322</v>
+        <v>0.003335506189614534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003045310964807868</v>
+        <v>0.004408754408359528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00498129241168499</v>
+        <v>0.006509728264063597</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007292496971786022</v>
+        <v>0.001580400858074427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01365299336612225</v>
+        <v>0.001843392732553184</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0005490576149895787</v>
+        <v>0.0008231434039771557</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01010065525770187</v>
+        <v>0.004276882857084274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002415526192635298</v>
+        <v>0.0003317877708468586</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000304908026009798</v>
+        <v>0.006741644814610481</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0009877571137621999</v>
+        <v>0.003851513378322124</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003025054174941033</v>
+        <v>0.003877477953210473</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005663396324962378</v>
+        <v>0.007252041716128588</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003267006017267704</v>
+        <v>0.002936890814453363</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01070541888475418</v>
+        <v>0.0004201369592919946</v>
       </c>
       <c r="P3" t="n">
-        <v>9.672599844634533e-06</v>
+        <v>0.002185447374358773</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.009710131213068962</v>
+        <v>0.004211364313960075</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002756397938355803</v>
+        <v>0.001739077502861619</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0006126068183220923</v>
+        <v>0.00218583969399333</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0003623868979047984</v>
+        <v>0.000542525143828243</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0005393534083850682</v>
+        <v>4.955709300702438e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002817261964082718</v>
+        <v>0.0004540526424534619</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005692876409739256</v>
+        <v>0.003556862706318498</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001445323461666703</v>
+        <v>0.001055910717695951</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001144994981586933</v>
+        <v>6.263429531827569e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0001339408336207271</v>
+        <v>0.005029724910855293</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001587824895977974</v>
+        <v>3.472238313406706e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.000720360258128494</v>
+        <v>0.0001701652654446661</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001180683495476842</v>
+        <v>0.002906404202803969</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001074656029231846</v>
+        <v>0.0001585738937137648</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.002400741213932633</v>
+        <v>0.0007443995564244688</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.000553797697648406</v>
+        <v>0.0003936200519092381</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001060295617207885</v>
+        <v>0.001371970982290804</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00192143430467695</v>
+        <v>0.00046085289795883</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0002082712016999722</v>
+        <v>0.0003123739152215421</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0001201060367748141</v>
+        <v>0.001007883460260928</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0002228284138254821</v>
+        <v>0.0001928254787344486</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0001753310352796689</v>
+        <v>0.001652489299885929</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.001453633536584675</v>
+        <v>0.0003012449597008526</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0003940765745937824</v>
+        <v>0.0005182345048524439</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.004608504474163055</v>
+        <v>0.0002669175446499139</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0008422285318374634</v>
+        <v>0.0007989360601641238</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.001033661072142422</v>
+        <v>0.001313352375291288</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.00069723668275401</v>
+        <v>0.001046167453750968</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001111314166337252</v>
+        <v>0.0001386928634019569</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.001329209771938622</v>
+        <v>0.0006381653365679085</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.001685370225459337</v>
+        <v>0.001203326159156859</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.001816697884351015</v>
+        <v>0.002575399121269584</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.002014501951634884</v>
+        <v>0.004841941874474287</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.003788823261857033</v>
+        <v>0.0008149544009938836</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.008680330589413643</v>
+        <v>0.002222530543804169</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0007679995615035295</v>
+        <v>0.0002528703771531582</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.00408027321100235</v>
+        <v>0.002974265487864614</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0005976652028039098</v>
+        <v>0.0013181131798774</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0004544300900306553</v>
+        <v>0.00642292806878686</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0003215133037883788</v>
+        <v>0.001897369977086782</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.001262461766600609</v>
+        <v>5.11186954099685e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.001475055585615337</v>
+        <v>0.001232697628438473</v>
       </c>
       <c r="BG3" t="n">
-        <v>8.473254274576902e-05</v>
+        <v>0.005075058899819851</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.001413419144228101</v>
+        <v>0.001093241618946195</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0005675582215189934</v>
+        <v>0.00473662419244647</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.00323373475112021</v>
+        <v>0.007807945366948843</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0009327483712695539</v>
+        <v>6.174424197524786e-05</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.001320882933214307</v>
+        <v>0.001030725194141269</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0006987222586758435</v>
+        <v>0.002016911283135414</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0001828408130677417</v>
+        <v>0.00232295598834753</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.002637731377035379</v>
+        <v>0.001672864891588688</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.002069581998512149</v>
+        <v>0.002918723970651627</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.002485062461346388</v>
+        <v>0.001131757046096027</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.00110344251152128</v>
+        <v>0.0014966472517699</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0003336177906021476</v>
+        <v>0.0005891589098609984</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0001924726529978216</v>
+        <v>0.001366160344332457</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0001687567564658821</v>
+        <v>0.0008555985987186432</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0004773851251229644</v>
+        <v>0.001458868500776589</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0006012095254845917</v>
+        <v>0.001380292582325637</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0004476789617910981</v>
+        <v>0.002487976802513003</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.002959190169349313</v>
+        <v>0.001106512499973178</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.003387379925698042</v>
+        <v>6.945118366274983e-05</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0005887100705876946</v>
+        <v>0.001449900562874973</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.003542751306667924</v>
+        <v>0.004895597696304321</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.002175631001591682</v>
+        <v>0.001950703328475356</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0001487135596107692</v>
+        <v>0.001066827331669629</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0008316413732245564</v>
+        <v>0.001189031871035695</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0002552716759964824</v>
+        <v>0.00116920203436166</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.001630578422918916</v>
+        <v>0.001465643523260951</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.00110494892578572</v>
+        <v>0.0008930566255003214</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.002764035947620869</v>
+        <v>0.0007485641399398446</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0004781596071552485</v>
+        <v>0.0008282642811536789</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.002028624061495066</v>
+        <v>0.001147486153058708</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0003092663246206939</v>
+        <v>0.001187486108392477</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.001268002204596996</v>
+        <v>0.002800400368869305</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0009083060431294143</v>
+        <v>0.0006867056945338845</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.001671847887337208</v>
+        <v>0.0003663418756332248</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0001763751497492194</v>
+        <v>0.000684924831148237</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.004503730218857527</v>
+        <v>0.00140202627517283</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.001962116220965981</v>
+        <v>0.0004514541651587933</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0006397321121767163</v>
+        <v>0.0006749760359525681</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.001290231826715171</v>
+        <v>0.001228007371537387</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.001554530346766114</v>
+        <v>0.001436238875612617</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0004552658938337117</v>
+        <v>0.001082194037735462</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.001018724869936705</v>
+        <v>0.0007746279006823897</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0001552323228679597</v>
+        <v>0.0003771058400161564</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.001944230170920491</v>
+        <v>0.0009390289196744561</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0006632583681493998</v>
+        <v>0.0006231116713024676</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.003051131265237927</v>
+        <v>0.0005106569151394069</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0007190252654254436</v>
+        <v>0.0003799961996264756</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.002288372023031116</v>
+        <v>0.0009476508130319417</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0001664984738454223</v>
+        <v>0.001473020063713193</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.001938021392561495</v>
+        <v>0.0003584520891308784</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.000203793853870593</v>
+        <v>0.005597325041890144</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0002673938870429993</v>
+        <v>0.001406701630912721</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.001037683105096221</v>
+        <v>0.0004125625127926469</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0007565650157630444</v>
+        <v>0.0007432489073835313</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0028588876593858</v>
+        <v>0.004900660831481218</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0001120434026233852</v>
+        <v>0.005513282958418131</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0006547062075696886</v>
+        <v>0.0008696946897543967</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0003248998546041548</v>
+        <v>0.001879101851955056</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.001049164449796081</v>
+        <v>0.0007840306498110294</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0007394058629870415</v>
+        <v>0.0008250988903455436</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.001291100867092609</v>
+        <v>0.001963001908734441</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0008862816612236202</v>
+        <v>0.0004273812228348106</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0006042533786967397</v>
+        <v>0.002389900153502822</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.002102623693645</v>
+        <v>0.0004966006963513792</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0008216180722229183</v>
+        <v>0.001182638923637569</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.001149847521446645</v>
+        <v>0.0009038957068696618</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001187677960842848</v>
+        <v>0.0008184693288058043</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0001097194035537541</v>
+        <v>0.0002613988472148776</v>
       </c>
       <c r="DX3" t="n">
-        <v>6.926077912794426e-05</v>
+        <v>0.0002562492154538631</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0006310503231361508</v>
+        <v>0.000988186220638454</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.001688799122348428</v>
+        <v>0.0008258828893303871</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.00110040488652885</v>
+        <v>0.0005649402737617493</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.001486480701714754</v>
+        <v>0.003196768462657928</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0007566360291093588</v>
+        <v>0.0003905344929080456</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.001044715521857142</v>
+        <v>0.002219465794041753</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0009100193274207413</v>
+        <v>0.001553516834974289</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0008784271776676178</v>
+        <v>0.00113822880666703</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.001549696666188538</v>
+        <v>0.0005696538137272</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0001448111434001476</v>
+        <v>0.00110690260771662</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.002324661938473582</v>
+        <v>0.001896919100545347</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.00116107240319252</v>
+        <v>0.000823211157694459</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.003445751266553998</v>
+        <v>0.0003846350882668048</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0007023169891908765</v>
+        <v>0.0007880814955569804</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.001604326767846942</v>
+        <v>0.001222143182530999</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001380810746923089</v>
+        <v>0.001942058093845844</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0005632456159219146</v>
+        <v>0.001081985654309392</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00146171823143959</v>
+        <v>0.0001199075923068449</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.00219012051820755</v>
+        <v>0.001530077192001045</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0002581680309958756</v>
+        <v>0.0009126507793553174</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.001447820337489247</v>
+        <v>0.0005043951096013188</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0002889664319809526</v>
+        <v>0.0007794291013851762</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0002679897588677704</v>
+        <v>0.0007320459117181599</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0009072219836525619</v>
+        <v>0.003567018546164036</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0005671452381648123</v>
+        <v>0.001294807298108935</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0003706149582285434</v>
+        <v>0.0008722556522116065</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0008593539241701365</v>
+        <v>0.000977618619799614</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0004476293106563389</v>
+        <v>0.0008326325914822519</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.001774029806256294</v>
+        <v>0.001136623905040324</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0006473094690591097</v>
+        <v>0.0003865354810841382</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.002409789245575666</v>
+        <v>0.0007346062920987606</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0006306495051831007</v>
+        <v>0.0005332141881808639</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001852082088589668</v>
+        <v>0.0008011591853573918</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0001855803420767188</v>
+        <v>0.001599938259460032</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0004418644239194691</v>
+        <v>0.0002369542198721319</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.002179705770686269</v>
+        <v>0.0007308374624699354</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.001168375019915402</v>
+        <v>0.0001556800561957061</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.002929581794887781</v>
+        <v>0.002194158034399152</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.002760713454335928</v>
+        <v>0.0006378524703904986</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.0004082806408405304</v>
+        <v>0.001392765319906175</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0004402849008329213</v>
+        <v>5.405758565757424e-05</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.0009867101907730103</v>
+        <v>0.0006687392015010118</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0003690882585942745</v>
+        <v>0.001935911946929991</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.001731871045194566</v>
+        <v>0.002586983144283295</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.002190446248278022</v>
+        <v>0.002173617947846651</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.001122568501159549</v>
+        <v>0.004843870177865028</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.001181806554086506</v>
+        <v>0.002286647679284215</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.001360402209684253</v>
+        <v>0.0006391943315975368</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.005357579328119755</v>
+        <v>0.002637795405462384</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.002963687991723418</v>
+        <v>0.0004219089751131833</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.005374195519834757</v>
+        <v>9.833845251705498e-05</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.00105261174030602</v>
+        <v>0.001939541776664555</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0008934210636653006</v>
+        <v>0.0009698198409751058</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0006369430338963866</v>
+        <v>0.001006074715405703</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.001349397120065987</v>
+        <v>0.001617045374587178</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.001813196227885783</v>
+        <v>0.001691419631242752</v>
       </c>
       <c r="GC3" t="n">
-        <v>3.819444100372493e-05</v>
+        <v>0.003224252024665475</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.001981795765459538</v>
+        <v>0.003019514959305525</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.000826178933493793</v>
+        <v>0.0003931975807063282</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0005576856783591211</v>
+        <v>0.001270680804736912</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.00242450600489974</v>
+        <v>0.0008185729384422302</v>
       </c>
     </row>
     <row r="4">
@@ -2711,5123 +2711,5123 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002583064138889313</v>
+        <v>0.001269344007596374</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001658356166444719</v>
+        <v>0.03074840269982815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001044013188220561</v>
+        <v>0.002112050773575902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004497082554735243</v>
+        <v>0.01172876171767712</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003299640724435449</v>
+        <v>0.0085768923163414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0122256837785244</v>
+        <v>0.01022484712302685</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003285027341917157</v>
+        <v>8.710101246833801e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003965183161199093</v>
+        <v>0.004258895292878151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007602992700412869</v>
+        <v>0.001519414596259594</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002376735443249345</v>
+        <v>0.004102971870452166</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001408286509104073</v>
+        <v>0.02509531378746033</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001093806931748986</v>
+        <v>0.001235163421370089</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0009324403363279998</v>
+        <v>0.008335614576935768</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002748044207692146</v>
+        <v>0.007123860996216536</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01196649298071861</v>
+        <v>0.01215117797255516</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00229240208864212</v>
+        <v>0.001066650962457061</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00192873110063374</v>
+        <v>0.003427333198487759</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0009669670835137367</v>
+        <v>0.0007585652056150138</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003344539320096374</v>
+        <v>0.0006767035229131579</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001022476935759187</v>
+        <v>0.003741806140169501</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0001918979251058772</v>
+        <v>0.0009920216398313642</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001312488224357367</v>
+        <v>0.004721658769994974</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0008906853618100286</v>
+        <v>0.004108764231204987</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002659045625478029</v>
+        <v>0.001779204118065536</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.618364568566903e-05</v>
+        <v>0.001129148993641138</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001491054426878691</v>
+        <v>0.003246225183829665</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001254934759344906</v>
+        <v>0.001309362472966313</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0008103735744953156</v>
+        <v>0.001533316099084914</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001542413723655045</v>
+        <v>0.004264970775693655</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.935396570246667e-05</v>
+        <v>0.0009099742164835334</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.863431291189045e-05</v>
+        <v>0.001839240314438939</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.004012154415249825</v>
+        <v>0.003286999184638262</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.002153532346710563</v>
+        <v>0.0017137685790658</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.276592027163133e-05</v>
+        <v>0.001790934009477496</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.002816340886056423</v>
+        <v>0.0001501442166045308</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001843055943027139</v>
+        <v>0.001959991874173284</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.001285949838347733</v>
+        <v>0.00485652033239603</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0001301612937822938</v>
+        <v>0.003408907447010279</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.003157834755256772</v>
+        <v>0.0004074843600392342</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0006302654510363936</v>
+        <v>0.001486699329689145</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001263146754354239</v>
+        <v>7.250491762533784e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0002919513499364257</v>
+        <v>0.003076719352975488</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0004288646159693599</v>
+        <v>0.0009243245585821569</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0003015520924236625</v>
+        <v>0.001810787594877183</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0006646799738518894</v>
+        <v>0.001806389889679849</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.001710040029138327</v>
+        <v>0.0007002835627645254</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.001013327506370842</v>
+        <v>0.02200134471058846</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.001173565862700343</v>
+        <v>0.0005058083334006369</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.003258040407672524</v>
+        <v>0.002399971708655357</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0004029579868074507</v>
+        <v>0.0004547765129245818</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.006273046135902405</v>
+        <v>0.005259753204882145</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9.732343460200354e-05</v>
+        <v>0.002952928654849529</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.001595203531906009</v>
+        <v>0.001815105555579066</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0009699191432446241</v>
+        <v>9.751663310453296e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0006687785498797894</v>
+        <v>0.001072547165676951</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0002182169264415279</v>
+        <v>0.01008311100304127</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.001714601879939437</v>
+        <v>0.006340768653899431</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.001605897210538387</v>
+        <v>0.001676224172115326</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.001374935498461127</v>
+        <v>0.008809305727481842</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002280771266669035</v>
+        <v>0.0067974585108459</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0008860693196766078</v>
+        <v>0.001598453847691417</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0006256749620661139</v>
+        <v>0.005686189979314804</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.000111966161057353</v>
+        <v>0.002982372883707285</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0001429225521860644</v>
+        <v>0.003999702166765928</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.000269057258265093</v>
+        <v>0.007290775887668133</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.000735932553652674</v>
+        <v>0.003681986359879375</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0006840883288532495</v>
+        <v>0.0005668694502674043</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.002291144337505102</v>
+        <v>0.003530160989612341</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0008862008107826114</v>
+        <v>0.002584748202934861</v>
       </c>
       <c r="BR5" t="n">
-        <v>6.342411506921053e-05</v>
+        <v>0.0009161396883428097</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0007581980316899717</v>
+        <v>0.001258188858628273</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0006758866365998983</v>
+        <v>0.0003063416806980968</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.002113353461027145</v>
+        <v>0.001202907878905535</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0002834670303855091</v>
+        <v>0.01226529944688082</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0005967473261989653</v>
+        <v>0.004692721180617809</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0007626865990459919</v>
+        <v>0.002517271088436246</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.000676910683978349</v>
+        <v>0.0008521892596036196</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0042997682467103</v>
+        <v>0.0004320503212511539</v>
       </c>
       <c r="CA5" t="n">
-        <v>5.654191772919148e-05</v>
+        <v>0.0007076063775457442</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.001677833963185549</v>
+        <v>0.0002642183098942041</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.001437434693798423</v>
+        <v>0.0006586556555703282</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.000211473845411092</v>
+        <v>0.000301587744615972</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0005295139853842556</v>
+        <v>0.004543624818325043</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.779873830149882e-05</v>
+        <v>0.00199669087305665</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0008209834923036397</v>
+        <v>0.0009338463423773646</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0008710136753506958</v>
+        <v>0.0001369858364341781</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.002001820597797632</v>
+        <v>0.001669439487159252</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0002881286200135946</v>
+        <v>0.00216184533201158</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0004502440569922328</v>
+        <v>0.001803911873139441</v>
       </c>
       <c r="CL5" t="n">
-        <v>4.420289769768715e-05</v>
+        <v>0.0008554772939532995</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.001408197567798197</v>
+        <v>0.006167799700051546</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0004498886701185256</v>
+        <v>0.006260652560740709</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001890909275971353</v>
+        <v>0.001279403921216726</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0006585465162061155</v>
+        <v>0.005341983400285244</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0003004595637321472</v>
+        <v>0.004334350116550922</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.001354510430246592</v>
+        <v>0.0009869015775620937</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.002106280997395515</v>
+        <v>0.005153702571988106</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001588282408192754</v>
+        <v>0.003664895426481962</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0007648166501894593</v>
+        <v>0.0006337811937555671</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0005867634317837656</v>
+        <v>2.910755574703217e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0006943377084098756</v>
+        <v>0.00368462479673326</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0001616764639038593</v>
+        <v>0.002912133000791073</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0008081556879915297</v>
+        <v>0.002284423913806677</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001140757231041789</v>
+        <v>0.0005583970341831446</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.00248046824708581</v>
+        <v>0.002257504034787416</v>
       </c>
       <c r="DB5" t="n">
-        <v>7.450701377820224e-05</v>
+        <v>0.001508261659182608</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.00119569303933531</v>
+        <v>0.002378663048148155</v>
       </c>
       <c r="DD5" t="n">
-        <v>5.282154597807676e-05</v>
+        <v>0.0006511646788567305</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003148174844682217</v>
+        <v>0.002611462958157063</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.001233912073075771</v>
+        <v>0.00279553746804595</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.002898663049563766</v>
+        <v>0.002709885593503714</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001129926647990942</v>
+        <v>0.01257725805044174</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0007607228471897542</v>
+        <v>0.003314664587378502</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.001735690049827099</v>
+        <v>0.0003666323609650135</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.002195971785113215</v>
+        <v>0.005122211761772633</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0009727244614623487</v>
+        <v>0.0001380734465783462</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.002799371024593711</v>
+        <v>0.004856177140027285</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001499692909419537</v>
+        <v>4.621557309292257e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0009387702448293567</v>
+        <v>0.001718893297947943</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0008019645465537906</v>
+        <v>0.003255015704780817</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0004508563433773816</v>
+        <v>0.0002087668981403112</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0001036809844663367</v>
+        <v>0.001001805067062378</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0003547509259078652</v>
+        <v>0.00206318125128746</v>
       </c>
       <c r="DT5" t="n">
-        <v>7.573550101369619e-05</v>
+        <v>0.0003833856026176363</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.00037123475340195</v>
+        <v>0.0005558135453611612</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0007257965626195073</v>
+        <v>0.001818817807361484</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001053495914675295</v>
+        <v>0.0003719549276866019</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0006185135571286082</v>
+        <v>2.146938641089946e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0005459983367472887</v>
+        <v>0.002879104111343622</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0008720061741769314</v>
+        <v>0.002459426876157522</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0002049407339654863</v>
+        <v>0.001321846386417747</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0007843505591154099</v>
+        <v>0.0005758741754107177</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0007719321292825043</v>
+        <v>0.0007653118809685111</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.001486699678935111</v>
+        <v>0.001974980579689145</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.000510487356223166</v>
+        <v>0.001334793516434729</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0008378097554668784</v>
+        <v>0.0003349290345795453</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001647192053496838</v>
+        <v>0.003686000127345324</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0005594144458882511</v>
+        <v>0.00065224664285779</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.001040315604768693</v>
+        <v>0.0003494134871289134</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.002280155662447214</v>
+        <v>0.0009563197963871062</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.002615047618746758</v>
+        <v>0.0009348226012662053</v>
       </c>
       <c r="EL5" t="n">
-        <v>6.577686872333288e-05</v>
+        <v>0.002088004723191261</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0008620105218142271</v>
+        <v>0.001620695926249027</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0001665763847995549</v>
+        <v>0.0002468872116878629</v>
       </c>
       <c r="EO5" t="n">
-        <v>1.02887861430645e-05</v>
+        <v>0.001212134724482894</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.001183301792480052</v>
+        <v>0.0006191828288137913</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0009686198900453746</v>
+        <v>0.003342578420415521</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0005855741328559816</v>
+        <v>0.001439309446141124</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0008049712050706148</v>
+        <v>0.001729588024318218</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.001603044336661696</v>
+        <v>0.002819835674017668</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0005690179532393813</v>
+        <v>0.0006800796836614609</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.001035121269524097</v>
+        <v>0.006695203948765993</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.001363930525258183</v>
+        <v>0.0005102805444039404</v>
       </c>
       <c r="EX5" t="n">
-        <v>7.768862997181714e-05</v>
+        <v>0.0002227732911705971</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0005404800758697093</v>
+        <v>0.003216649172827601</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0003108669479843229</v>
+        <v>0.001796082360669971</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0007781488238833845</v>
+        <v>0.001168404123745859</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.001034363638609648</v>
+        <v>0.0004997780779376626</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.002008409006521106</v>
+        <v>0.001957910601049662</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0001664904411882162</v>
+        <v>0.002401933539658785</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0008923345012590289</v>
+        <v>0.0014280139002949</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0001260783465113491</v>
+        <v>0.001340483780950308</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0003173581208102405</v>
+        <v>0.0009280928061343729</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0009423872688785195</v>
+        <v>0.00228593498468399</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0005717785097658634</v>
+        <v>0.002703169593587518</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0002320285129826516</v>
+        <v>0.006289729382842779</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.001996094360947609</v>
+        <v>0.002676985925063491</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0007847591186873615</v>
+        <v>0.001537252217531204</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.000824047951027751</v>
+        <v>0.001730140997096896</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.001995970495045185</v>
+        <v>0.001293163048103452</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.001554121845401824</v>
+        <v>0.0003631899307947606</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.003548579989001155</v>
+        <v>0.002468280494213104</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0008546413155272603</v>
+        <v>0.00711023760959506</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001030166284181178</v>
+        <v>0.0004366001521702856</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.0002374541654717177</v>
+        <v>0.002341871149837971</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0006674884352833033</v>
+        <v>0.004900312516838312</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.004939454142004251</v>
+        <v>0.002794500440359116</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001551365363411605</v>
+        <v>0.005349892657250166</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.001070773112587631</v>
+        <v>0.004222401883453131</v>
       </c>
       <c r="FX5" t="n">
-        <v>3.684236435219646e-05</v>
+        <v>0.003381941700354218</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0006538439774885774</v>
+        <v>0.003731011645868421</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0002975139941554517</v>
+        <v>0.0007876749732531607</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001128949807025492</v>
+        <v>0.002452331362292171</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0004921939689666033</v>
+        <v>0.0004386028740555048</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001684680115431547</v>
+        <v>0.0005646385252475739</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.000432183500379324</v>
+        <v>0.00429703202098608</v>
       </c>
       <c r="GE5" t="n">
-        <v>3.056273271795362e-05</v>
+        <v>0.009142754599452019</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.001637446926906705</v>
+        <v>0.0001026617828756571</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0003058559959754348</v>
+        <v>0.001527392072603106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0007196075166575611</v>
+        <v>0.003926393110305071</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0170317068696022</v>
+        <v>0.05246670544147491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006373903248459101</v>
+        <v>0.004813520237803459</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002868633950129151</v>
+        <v>0.03268513083457947</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005047284997999668</v>
+        <v>0.008339479565620422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03302954137325287</v>
+        <v>0.002529479330405593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001902511809021235</v>
+        <v>0.00738661689683795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006736620329320431</v>
+        <v>0.005038644187152386</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005319907329976559</v>
+        <v>0.0005479611572809517</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001335040142294019</v>
+        <v>0.008975702337920666</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02147128060460091</v>
+        <v>0.04106847941875458</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006203282624483109</v>
+        <v>0.002883004024624825</v>
       </c>
       <c r="M6" t="n">
-        <v>9.146402589976788e-06</v>
+        <v>0.03064678609371185</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001857254886999726</v>
+        <v>0.01292371097952127</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0369381308555603</v>
+        <v>0.008423143997788429</v>
       </c>
       <c r="P6" t="n">
-        <v>0.004302865825593472</v>
+        <v>0.005231684539467096</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002445873338729143</v>
+        <v>0.005444451700896025</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003493425203487277</v>
+        <v>0.002997858915477991</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003200288629159331</v>
+        <v>0.002582047134637833</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004654072690755129</v>
+        <v>0.009267079643905163</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00197826512157917</v>
+        <v>0.002495101420208812</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00118971208576113</v>
+        <v>0.003290383378043771</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0007814170094206929</v>
+        <v>5.819994839839637e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01174812205135822</v>
+        <v>0.004618318751454353</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004178844392299652</v>
+        <v>0.007247860543429852</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.007361693307757378</v>
+        <v>0.006324708461761475</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0009531434625387192</v>
+        <v>0.005662203300744295</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.004900434054434299</v>
+        <v>0.001710409764200449</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0006081712199375033</v>
+        <v>0.006159364245831966</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.002951483009383082</v>
+        <v>0.0006977674784138799</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.002743826946243644</v>
+        <v>0.0009761819965206087</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01042286586016417</v>
+        <v>0.001799715682864189</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.004815877415239811</v>
+        <v>0.00381722510792315</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.002945234766229987</v>
+        <v>0.00464291637763381</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.002651763847097754</v>
+        <v>0.001902345451526344</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.002507138531655073</v>
+        <v>0.002219285583123565</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0002551226934883744</v>
+        <v>0.004676287993788719</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.001124214613810182</v>
+        <v>0.008622813038527966</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0002917196252383292</v>
+        <v>0.000965835468377918</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0003345794975757599</v>
+        <v>0.001411213772371411</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.001145170419476926</v>
+        <v>8.850760787026957e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.003421988803893328</v>
+        <v>0.002494154032319784</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.001510504633188248</v>
+        <v>0.004037635866552591</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0006022699526511133</v>
+        <v>0.00335523602552712</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.004014788195490837</v>
+        <v>0.002815861254930496</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.00152959069237113</v>
+        <v>0.003154184203594923</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.01175833959132433</v>
+        <v>0.03482317924499512</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.00294239167124033</v>
+        <v>0.0005532614886760712</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.003775496734306216</v>
+        <v>0.007300037425011396</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.001625950681045651</v>
+        <v>0.0009067347273230553</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.01428109407424927</v>
+        <v>0.001260115881450474</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0001375372230540961</v>
+        <v>0.003984976559877396</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.003843815065920353</v>
+        <v>0.002614026190713048</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0003971538098994642</v>
+        <v>0.002913227304816246</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.004749724175781012</v>
+        <v>0.00157369626685977</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0004442232311703265</v>
+        <v>0.007869929075241089</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.003861878532916307</v>
+        <v>0.00788462907075882</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.004250891506671906</v>
+        <v>0.007666140794754028</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0006742263212800026</v>
+        <v>0.01342947967350483</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.007445996161550283</v>
+        <v>0.001486148801632226</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.002320287516340613</v>
+        <v>0.005868626292794943</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.006109102629125118</v>
+        <v>0.005112288054078817</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.0007448263932019472</v>
+        <v>0.0006023121532052755</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.002599325031042099</v>
+        <v>0.004103887360543013</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.004618327599018812</v>
+        <v>0.001842000754550099</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.002704595448449254</v>
+        <v>0.003075246931985021</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.001520443591289222</v>
+        <v>0.001732515869662166</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.00519436364993453</v>
+        <v>0.001769472844898701</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.002717848867177963</v>
+        <v>0.002791839884594083</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0003202086954843253</v>
+        <v>0.0009074756526388228</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.003887396305799484</v>
+        <v>0.002383939223363996</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.001791912596672773</v>
+        <v>0.002978365169838071</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.0009271459421142936</v>
+        <v>0.00384159293025732</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.006028640549629927</v>
+        <v>0.02036649920046329</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.003821546910330653</v>
+        <v>0.006425925530493259</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0009791501797735691</v>
+        <v>0.007767762057483196</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.003769580973312259</v>
+        <v>3.469469811534509e-05</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.01044943556189537</v>
+        <v>0.0007752306992188096</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0001268202031496912</v>
+        <v>0.00390633987262845</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.001545466715469956</v>
+        <v>0.002527345204725862</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.005908372811973095</v>
+        <v>0.005245299078524113</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.001500021549873054</v>
+        <v>0.001188810681924224</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.003588221967220306</v>
+        <v>0.00830356776714325</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0007728995988145471</v>
+        <v>0.003587341867387295</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0001416346349287778</v>
+        <v>0.003260036697611213</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.001296658767387271</v>
+        <v>0.001691676210612059</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.005565179046243429</v>
+        <v>0.002313041128218174</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.001930391066707671</v>
+        <v>0.001828324398957193</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0001267748739337549</v>
+        <v>0.0009112139232456684</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.001731726457364857</v>
+        <v>0.002818240784108639</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.00250147795304656</v>
+        <v>0.009417124092578888</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.001310070743784308</v>
+        <v>0.00176239712163806</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.004643858410418034</v>
+        <v>6.247965211514384e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0007549310685135424</v>
+        <v>0.006459200289100409</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.001185154309496284</v>
+        <v>0.007802566513419151</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.004984503611922264</v>
+        <v>0.001071776612661779</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.002756453352048993</v>
+        <v>0.005646455567330122</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.002348320325836539</v>
+        <v>0.007427174132317305</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.001276990282349288</v>
+        <v>0.001265720231458545</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.002453574212267995</v>
+        <v>0.0006968359230086207</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.003538651624694467</v>
+        <v>0.007923643104732037</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.0008502384880557656</v>
+        <v>0.003992064855992794</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.0001809907553251833</v>
+        <v>0.005018406081944704</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.001230167807079852</v>
+        <v>0.002569132717326283</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.00535077229142189</v>
+        <v>0.003328451421111822</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.001939204637892544</v>
+        <v>0.001809339853934944</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.002228581113740802</v>
+        <v>0.001735667348839343</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.001865628408268094</v>
+        <v>0.001062206691130996</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.00817145686596632</v>
+        <v>0.003622776130214334</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.002001993590965867</v>
+        <v>0.007265308871865273</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.00266754743643105</v>
+        <v>0.0002262101043015718</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0001352485996903852</v>
+        <v>0.01414309628307819</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.008701087906956673</v>
+        <v>0.001880557858385146</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.001618329435586929</v>
+        <v>0.002873031888157129</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.007935842499136925</v>
+        <v>0.00415338296443224</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.007683260831981897</v>
+        <v>0.001568197039887309</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.003384226933121681</v>
+        <v>0.000964085222221911</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.004221923649311066</v>
+        <v>0.0009602044592611492</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0003680857771541923</v>
+        <v>0.001574531081132591</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.00132744200527668</v>
+        <v>0.00239873118698597</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.001887283520773053</v>
+        <v>0.0009970343671739101</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.0005254517309367657</v>
+        <v>0.004970334004610777</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.001668863231316209</v>
+        <v>0.003957878332585096</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.005224382039159536</v>
+        <v>0.002469303552061319</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.001975971041247249</v>
+        <v>0.004207929130643606</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.001628234516829252</v>
+        <v>0.005453589372336864</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.001019663643091917</v>
+        <v>0.0008479771786369383</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0008946674643084407</v>
+        <v>0.003361482406035066</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.002253547077998519</v>
+        <v>0.0043103345669806</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.001536864554509521</v>
+        <v>0.003003180958330631</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.004396078176796436</v>
+        <v>0.004060502164065838</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.0003546542138792574</v>
+        <v>0.0004323380999267101</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.00116996222641319</v>
+        <v>0.002968995366245508</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.002963970648124814</v>
+        <v>0.001668279990553856</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.001245879800990224</v>
+        <v>0.002957620657980442</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0023911795578897</v>
+        <v>0.001559213735163212</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.00544509245082736</v>
+        <v>0.005520162172615528</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.001192084862850606</v>
+        <v>0.003255293471738696</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.0009443067829124629</v>
+        <v>0.003767688293009996</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.006159648764878511</v>
+        <v>0.0008602687157690525</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.00694347033277154</v>
+        <v>0.004517406690865755</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.00029446926782839</v>
+        <v>0.001510289264842868</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.004221315495669842</v>
+        <v>0.0004110515583306551</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.003238687291741371</v>
+        <v>0.001346522592939436</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.002983225975185633</v>
+        <v>0.0003646995173767209</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.0009172484278678894</v>
+        <v>0.004803246818482876</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.0011614840477705</v>
+        <v>0.005674523767083883</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.001736083882860839</v>
+        <v>0.002831059275195003</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.004180281888693571</v>
+        <v>0.003415822284296155</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.002961325692012906</v>
+        <v>0.00789556372910738</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.0007884092046879232</v>
+        <v>0.004318176303058863</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.0007505397079512477</v>
+        <v>0.006111091002821922</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.005584297236055136</v>
+        <v>0.0007349764346145093</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.001880846917629242</v>
+        <v>0.0005017595831304789</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.004474859684705734</v>
+        <v>0.008237557485699654</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.001598558854311705</v>
+        <v>0.002811517100781202</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.0007708526682108641</v>
+        <v>0.00492078484967351</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.001350903417915106</v>
+        <v>0.002367729786783457</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.005445593036711216</v>
+        <v>0.002889140974730253</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.001855521928519011</v>
+        <v>0.002537266118451953</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.000974477210547775</v>
+        <v>0.0009332747431471944</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.002154015935957432</v>
+        <v>0.002534299856051803</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.003610814921557903</v>
+        <v>0.0001164100831374526</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.005671771243214607</v>
+        <v>0.005113052204251289</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.006105454172939062</v>
+        <v>0.004389046691358089</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.001700562774203718</v>
+        <v>0.005687073804438114</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.00817324873059988</v>
+        <v>0.001723758410662413</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.003348105121403933</v>
+        <v>0.002070015296339989</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.0006496478454209864</v>
+        <v>0.0007224373985081911</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.001419750158675015</v>
+        <v>0.0005839747027494013</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.00614479836076498</v>
+        <v>0.001853431924246252</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.0005027158767916262</v>
+        <v>0.001325095538049936</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.006069833412766457</v>
+        <v>0.008869342505931854</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.0005904174176976085</v>
+        <v>0.006910108961164951</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.004636147059500217</v>
+        <v>0.005862513557076454</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0004951581358909607</v>
+        <v>0.0003298365918453783</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.008091713301837444</v>
+        <v>0.001450314885005355</v>
       </c>
       <c r="FV6" t="n">
-        <v>6.095494609326124e-05</v>
+        <v>0.001217849436216056</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.001142916851677001</v>
+        <v>0.002329892944544554</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.001903107622638345</v>
+        <v>0.002395848510786891</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.001321192365139723</v>
+        <v>0.007254039403051138</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.002186556812375784</v>
+        <v>0.0001330204104306176</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0002794506144709885</v>
+        <v>0.0002980357094202191</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.001301692798733711</v>
+        <v>0.0003908228245563805</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.001978193875402212</v>
+        <v>0.006618043407797813</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.001416528364643455</v>
+        <v>0.004734725691378117</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.135747879743576e-06</v>
+        <v>0.01910966821014881</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.005756068043410778</v>
+        <v>0.002885036868974566</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.0009200811618939042</v>
+        <v>0.004414864350110292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004257262218743563</v>
+        <v>0.0007945320103317499</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001829362008720636</v>
+        <v>0.03279321268200874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009706670418381691</v>
+        <v>0.000137317183543928</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005629058927297592</v>
+        <v>0.01365689467638731</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004559485823847353</v>
+        <v>0.007852254435420036</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03415979072451591</v>
+        <v>0.01916059665381908</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005378387402743101</v>
+        <v>0.002842643298208714</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01499835401773453</v>
+        <v>0.0100134564563632</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006674917880445719</v>
+        <v>0.001666995813138783</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004095567390322685</v>
+        <v>0.005691471043974161</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005472741089761257</v>
+        <v>0.02714700624346733</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008905217051506042</v>
+        <v>0.00312227732501924</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003605317324399948</v>
+        <v>0.009916592389345169</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001348764286376536</v>
+        <v>0.006101277656853199</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03581831604242325</v>
+        <v>0.02191941440105438</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005308997817337513</v>
+        <v>0.001089888974092901</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01052032131701708</v>
+        <v>0.001879858784377575</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006426504347473383</v>
+        <v>0.001484089298173785</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006803657859563828</v>
+        <v>0.002816064050421119</v>
       </c>
       <c r="T7" t="n">
-        <v>0.003240171819925308</v>
+        <v>0.004611257463693619</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001797905890271068</v>
+        <v>0.002060357946902514</v>
       </c>
       <c r="V7" t="n">
-        <v>0.003007822670042515</v>
+        <v>0.003169072791934013</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0009385556913912296</v>
+        <v>0.003302703145891428</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01289503369480371</v>
+        <v>0.0007768380455672741</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0003285559359937906</v>
+        <v>0.003340849885717034</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.006077327765524387</v>
+        <v>0.002848071046173573</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.002260996727272868</v>
+        <v>0.003656190820038319</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.002687677042558789</v>
+        <v>0.0009584126528352499</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.00523082073777914</v>
+        <v>0.004334692843258381</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001705778180621564</v>
+        <v>0.001013431348837912</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.004640334751456976</v>
+        <v>0.000520087662152946</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01737762242555618</v>
+        <v>0.0009482646710239351</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.005250617861747742</v>
+        <v>0.001552089466713369</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.003585292026400566</v>
+        <v>0.002144700614735484</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.009975792840123177</v>
+        <v>0.001955399755388498</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.003219922538846731</v>
+        <v>0.00146585307084024</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0003933057014364749</v>
+        <v>0.004620651248842478</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.002704603830352426</v>
+        <v>0.005354519002139568</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.003014157060533762</v>
+        <v>0.000822673027869314</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003248664084821939</v>
+        <v>0.0001500844955444336</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.001803337130695581</v>
+        <v>3.465195186436176e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.002581397304311395</v>
+        <v>0.005250699818134308</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0002188608341384679</v>
+        <v>1.800607424229383e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.001082793227396905</v>
+        <v>0.003201475366950035</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.003286535851657391</v>
+        <v>0.003553390270099044</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.002046870067715645</v>
+        <v>0.001592225511558354</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.002597348298877478</v>
+        <v>0.02270201593637466</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.004289421252906322</v>
+        <v>0.0008586632320657372</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.003136977553367615</v>
+        <v>0.001777677214704454</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.007393402978777885</v>
+        <v>0.004793669562786818</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.01873929984867573</v>
+        <v>0.01269099675118923</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0007757929852232337</v>
+        <v>0.000195751286810264</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.004548657685518265</v>
+        <v>0.004854196682572365</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.001333541702479124</v>
+        <v>0.00529345590621233</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0009046939085237682</v>
+        <v>0.0008048766758292913</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.004625142551958561</v>
+        <v>0.00737994397059083</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.004292856901884079</v>
+        <v>0.009075912646949291</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.005678680259734392</v>
+        <v>0.003002265235409141</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002574206562712789</v>
+        <v>0.006181759759783745</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.002418792340904474</v>
+        <v>0.004617527592927217</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.002768802689388394</v>
+        <v>0.002386845182627439</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.007903307676315308</v>
+        <v>0.00559712341055274</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0007816117722541094</v>
+        <v>4.891445860266685e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.00144485104829073</v>
+        <v>0.001021137810312212</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.002075424185022712</v>
+        <v>0.006156382616609335</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0004434465372469276</v>
+        <v>0.003340107388794422</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.004352380055934191</v>
+        <v>0.001239888137206435</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.004220787435770035</v>
+        <v>0.002295345300808549</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.004605019930750132</v>
+        <v>0.002668557222932577</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.002004179172217846</v>
+        <v>0.001966075506061316</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.001846039318479598</v>
+        <v>0.001346496283076704</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.001880390802398324</v>
+        <v>0.001980796456336975</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.00323755107820034</v>
+        <v>0.002208706922829151</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0003311876789666712</v>
+        <v>0.01236043684184551</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.002665935317054391</v>
+        <v>0.0034915073774755</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0008826819248497486</v>
+        <v>0.003704386996105313</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.001830892986617982</v>
+        <v>0.004220868460834026</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.01185096986591816</v>
+        <v>0.003416845109313726</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.003595938440412283</v>
+        <v>0.002302889944985509</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.001839616568759084</v>
+        <v>0.001690911129117012</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.005042470060288906</v>
+        <v>0.004370769951492548</v>
       </c>
       <c r="CD7" t="n">
-        <v>3.585091326385736e-05</v>
+        <v>0.0004313722893130034</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.003336379071697593</v>
+        <v>0.005193030461668968</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.002096347510814667</v>
+        <v>0.003433668054640293</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.003731525037437677</v>
+        <v>0.002236786298453808</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0006920970045030117</v>
+        <v>0.001412317040376365</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.00602967943996191</v>
+        <v>0.002998632844537497</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0008990259957499802</v>
+        <v>0.001627574441954494</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.00267519848421216</v>
+        <v>0.001644565491005778</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.001281084259971976</v>
+        <v>0.002169742016121745</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.001287556020542979</v>
+        <v>0.005347506608814001</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0006149464752525091</v>
+        <v>0.003229243448004127</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.003654359374195337</v>
+        <v>0.002203280804678798</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.003346916288137436</v>
+        <v>0.002141829580068588</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0005004447884857655</v>
+        <v>0.001811605296097696</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.006488330196589231</v>
+        <v>0.00231798505410552</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.004088166169822216</v>
+        <v>0.005805563181638718</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.001339935115538538</v>
+        <v>0.005676781758666039</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.002045184141024947</v>
+        <v>7.825711509212852e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.001172493095509708</v>
+        <v>2.250465331599116e-05</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.003444906091317534</v>
+        <v>0.004044972825795412</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.002235225634649396</v>
+        <v>0.003951192833483219</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.002984712133184075</v>
+        <v>0.004032949917018414</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001319827511906624</v>
+        <v>0.0008747185347601771</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.006635606288909912</v>
+        <v>0.003308021696284413</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0005615144618786871</v>
+        <v>0.00158735690638423</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.004454719834029675</v>
+        <v>0.003595886984840035</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.001504023792222142</v>
+        <v>0.001065308460965753</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.006777666509151459</v>
+        <v>0.003554507158696651</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0004544617258943617</v>
+        <v>0.00434246938675642</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.001487343572080135</v>
+        <v>0.0002668522647581995</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.004461471457034349</v>
+        <v>0.01385816466063261</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.005966528318822384</v>
+        <v>9.661224612500519e-05</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0008806657860986888</v>
+        <v>0.0007406303193420172</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.00822065956890583</v>
+        <v>0.004721783101558685</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0008139063138514757</v>
+        <v>0.003793752985075116</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.003003624733537436</v>
+        <v>0.001177491620182991</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.004234540741890669</v>
+        <v>0.001478597638197243</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.002668043365702033</v>
+        <v>0.0007030065171420574</v>
       </c>
       <c r="DP7" t="n">
-        <v>2.792523082462139e-05</v>
+        <v>0.002187997102737427</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.004292039666324854</v>
+        <v>0.001555769238620996</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.000455545901786536</v>
+        <v>0.0003986497758887708</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.001425054855644703</v>
+        <v>0.001028470462188125</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.002420733449980617</v>
+        <v>0.0003745338181033731</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.001877640257589519</v>
+        <v>0.001100803609006107</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.001018967712298036</v>
+        <v>0.003525620559230447</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0007508173584938049</v>
+        <v>0.00128403992857784</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0005752351135015488</v>
+        <v>0.002855394966900349</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0008538877591490746</v>
+        <v>0.006801391951739788</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.002634763717651367</v>
+        <v>0.000464346376247704</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.002597500802949071</v>
+        <v>0.001464747241698205</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.002005333779379725</v>
+        <v>0.0009468329371884465</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0020806142129004</v>
+        <v>0.0005552166840061545</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.001475189928896725</v>
+        <v>0.001502695144154131</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0009526803623884916</v>
+        <v>0.0001258184784092009</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.001526970183476806</v>
+        <v>0.002048887778073549</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.004069872666150331</v>
+        <v>0.003526786109432578</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.001683151931501925</v>
+        <v>0.001375804888084531</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.001961069647222757</v>
+        <v>0.0004614469944499433</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.004002538044005632</v>
+        <v>0.001250880304723978</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.005193260498344898</v>
+        <v>0.003224961226806045</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0001639736001379788</v>
+        <v>0.001458112616091967</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.003316760528832674</v>
+        <v>0.0006347126327455044</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.001888611819595098</v>
+        <v>0.0006833340157754719</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.001912702806293964</v>
+        <v>0.0004406757070682943</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0007551575545221567</v>
+        <v>0.001290935906581581</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0009599708137102425</v>
+        <v>0.005888385698199272</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0002980307617690414</v>
+        <v>0.003316933754831553</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0001126297283917665</v>
+        <v>0.002007017843425274</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.005995068699121475</v>
+        <v>0.003959718160331249</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.001990138553082943</v>
+        <v>0.004264509305357933</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.00146435119677335</v>
+        <v>0.0076321205124259</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.003011791035532951</v>
+        <v>0.0003301044926047325</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0006988211534917355</v>
+        <v>0.0002716311428230256</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.002783956006169319</v>
+        <v>0.004105135332792997</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.002615913283079863</v>
+        <v>0.002931306604295969</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.003099271794781089</v>
+        <v>0.002485230565071106</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001002637203782797</v>
+        <v>0.00137367204297334</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.00661031249910593</v>
+        <v>0.00308255129493773</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0006146867526695132</v>
+        <v>0.002754860790446401</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.003854737617075443</v>
+        <v>0.002281344961374998</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0009934246772900224</v>
+        <v>0.002233779523521662</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0006101567414589226</v>
+        <v>0.0004646669840440154</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.004573751706629992</v>
+        <v>0.002403598045930266</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.003510995302349329</v>
+        <v>0.00564786558970809</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001999037573114038</v>
+        <v>0.003315052017569542</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.001702560810372233</v>
+        <v>0.0008573322556912899</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.004747090395539999</v>
+        <v>0.002277221530675888</v>
       </c>
       <c r="FM7" t="n">
-        <v>2.548671909607947e-05</v>
+        <v>0.0003853672824334353</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.00465327687561512</v>
+        <v>0.002005946123972535</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.004761128220707178</v>
+        <v>0.001690006116405129</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0005334056913852692</v>
+        <v>0.001346351578831673</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.005055189598351717</v>
+        <v>0.007230111863464117</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0009145549265667796</v>
+        <v>0.003796092001721263</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.007652177475392818</v>
+        <v>0.00237959180958569</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.000376436859369278</v>
+        <v>0.001019389368593693</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.01291749998927116</v>
+        <v>0.002503657480701804</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.003202834166586399</v>
+        <v>0.002765449229627848</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0003167380928061903</v>
+        <v>0.002076355507597327</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.004371566697955132</v>
+        <v>0.0005379795911721885</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0005904968129470944</v>
+        <v>0.005587590858340263</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.003626180812716484</v>
+        <v>0.002123802667483687</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0002071976196020842</v>
+        <v>0.002465478843078017</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.003942290786653757</v>
+        <v>0.001312705688178539</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.001283472520299256</v>
+        <v>0.003288572421297431</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.002462894655764103</v>
+        <v>0.004680703859776258</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.005619472824037075</v>
+        <v>0.01504726614803076</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.005268264561891556</v>
+        <v>0.0005728439427912235</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0005102311843074858</v>
+        <v>0.002433954970911145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.000281190499663353</v>
+        <v>0.002166565507650375</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006647960748523474</v>
+        <v>0.01046797819435596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001829250482842326</v>
+        <v>0.001234503462910652</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001182407373562455</v>
+        <v>0.006206530146300793</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003935704007744789</v>
+        <v>0.002090177964419127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01403152290731668</v>
+        <v>0.002654185285791755</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004645396838895977</v>
+        <v>0.001190116629004478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004704591818153858</v>
+        <v>0.0002563571033533663</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001198471058160067</v>
+        <v>0.0004424895159900188</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006096671568229795</v>
+        <v>0.002873767632991076</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00624859007075429</v>
+        <v>0.007251882459968328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006943379412405193</v>
+        <v>0.0006494410918094218</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0005536649841815233</v>
+        <v>0.004613902885466814</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003422291483730078</v>
+        <v>0.002814234234392643</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01264415308833122</v>
+        <v>0.003914650529623032</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0001200958940899</v>
+        <v>0.001553986803628504</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00065743422601372</v>
+        <v>0.001574035733938217</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0003287126310169697</v>
+        <v>2.256622246932238e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0003062348114326596</v>
+        <v>8.355315367225558e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001255715033039451</v>
+        <v>0.00163679919205606</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0008480854448862374</v>
+        <v>0.000387699663406238</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001444374909624457</v>
+        <v>0.001054267748259008</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001284327125176787</v>
+        <v>0.0006993223214522004</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0033926444593817</v>
+        <v>0.001321951975114644</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.00228912360034883</v>
+        <v>0.001824429607950151</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.003877723589539528</v>
+        <v>0.0003517487493809313</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.972911069169641e-05</v>
+        <v>0.001106176874600351</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0001848488755058497</v>
+        <v>0.0002765379031188786</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.878351657884195e-05</v>
+        <v>0.001002489705570042</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0005926886224187911</v>
+        <v>0.0001209838665090501</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.002382564358413219</v>
+        <v>0.0001218482066178694</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0066060577519238</v>
+        <v>0.0002925292938016355</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.00164073845371604</v>
+        <v>1.992955367313698e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.870640648528934e-05</v>
+        <v>0.001076241722330451</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.003504841355606914</v>
+        <v>0.0005228507798165083</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0009958768496289849</v>
+        <v>0.0002239656314486638</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0004258200351614505</v>
+        <v>0.001141775632277131</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0005569314234890044</v>
+        <v>0.001387676107697189</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0006848826305940747</v>
+        <v>0.0003900541050825268</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.102701935451478e-05</v>
+        <v>0.0002992695372086018</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0001293410896323621</v>
+        <v>0.0003007582272402942</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001222517108544707</v>
+        <v>0.0005359268980100751</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0006038635037839413</v>
+        <v>0.0007700460264459252</v>
       </c>
       <c r="AR8" t="n">
-        <v>8.284683281090111e-05</v>
+        <v>4.752534005092457e-05</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001558787538670003</v>
+        <v>0.0008820208022370934</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.00109992828220129</v>
+        <v>0.000179827053216286</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.002516851993277669</v>
+        <v>0.006812069565057755</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.001425496535375714</v>
+        <v>0.0001501702063251287</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.001222917344421148</v>
+        <v>0.001452934113331139</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0001527991116745397</v>
+        <v>7.649009785382077e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.006597563624382019</v>
+        <v>0.0007314424146898091</v>
       </c>
       <c r="AZ8" t="n">
-        <v>8.689497190061957e-05</v>
+        <v>2.286617200297769e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0001312638632953167</v>
+        <v>0.0008726973901502788</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0003885154146701097</v>
+        <v>0.001115904771722853</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.001266151666641235</v>
+        <v>0.001131570083089173</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.001793876872397959</v>
+        <v>0.0019469402031973</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0006827928591519594</v>
+        <v>0.002000664826482534</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.002992316847667098</v>
+        <v>0.001281998469494283</v>
       </c>
       <c r="BG8" t="n">
-        <v>3.321090480312705e-05</v>
+        <v>0.003052669577300549</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.002818011213093996</v>
+        <v>0.001236964832060039</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0007183185080066323</v>
+        <v>0.0008402736857533455</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.002689163200557232</v>
+        <v>0.002004459267482162</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0003005489706993103</v>
+        <v>0.0003342347918078303</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0007873137947171926</v>
+        <v>0.001362391747534275</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.001444288063794374</v>
+        <v>0.001199962920509279</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.001036717090755701</v>
+        <v>0.0008085068548098207</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.001064717071130872</v>
+        <v>0.0005492966156452894</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.001331275561824441</v>
+        <v>0.0008272686973214149</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.001336951507255435</v>
+        <v>0.0004128797445446253</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.000711392960511148</v>
+        <v>0.0005414913757704198</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.001226834603585303</v>
+        <v>0.000992948655039072</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0007037277682684362</v>
+        <v>0.0001851577253546566</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0002198199508711696</v>
+        <v>0.0001090302394004539</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0007851305417716503</v>
+        <v>0.003450854914262891</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.001483040628954768</v>
+        <v>0.001425254158675671</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0006051284726709127</v>
+        <v>0.0008779330528341234</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.002772553823888302</v>
+        <v>0.0001765844790497795</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.004658308811485767</v>
+        <v>0.0008690162794664502</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0001700481079751626</v>
+        <v>0.001408298034220934</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0001129914890043437</v>
+        <v>0.0002131459332304075</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.002557906322181225</v>
+        <v>0.0007132255705073476</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0002671326510608196</v>
+        <v>0.0004123435355722904</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.001104833791032434</v>
+        <v>0.001654567080549896</v>
       </c>
       <c r="CF8" t="n">
-        <v>6.665807450190187e-05</v>
+        <v>0.0008412490715272725</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0002076521923299879</v>
+        <v>0.0004327366477809846</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.000729738618247211</v>
+        <v>0.0005043764249421656</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.002270955825224519</v>
+        <v>0.0008282770868390799</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0006494795670732856</v>
+        <v>0.0003860199358314276</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0005928692407906055</v>
+        <v>0.0002423798723611981</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0006554750143550336</v>
+        <v>0.0006960618775337934</v>
       </c>
       <c r="CM8" t="n">
-        <v>9.266316192224622e-05</v>
+        <v>0.0009753967169672251</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.001274664420634508</v>
+        <v>0.0001802195911295712</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.001986001385375857</v>
+        <v>2.853402111213654e-05</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.002039482584223151</v>
+        <v>0.001990515273064375</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0002863740082830191</v>
+        <v>0.001550364075228572</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.00208120490424335</v>
+        <v>0.000137570226797834</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0001665221207076684</v>
+        <v>0.001202845247462392</v>
       </c>
       <c r="CT8" t="n">
-        <v>7.079969509504735e-05</v>
+        <v>0.001069715828634799</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.00135802011936903</v>
+        <v>0.0002151808876078576</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0004227715544402599</v>
+        <v>0.0003185647074133158</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.00141688366420567</v>
+        <v>0.001395351020619273</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0002252715057693422</v>
+        <v>0.0007277673576027155</v>
       </c>
       <c r="CY8" t="n">
-        <v>9.783514542505145e-05</v>
+        <v>0.0009469192591495812</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.001326572964899242</v>
+        <v>0.0006072693504393101</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.002241885056719184</v>
+        <v>0.000962578400503844</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0007514046737924218</v>
+        <v>0.0004281966830603778</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.001252288464456797</v>
+        <v>0.0002812421007547528</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0007359277224168181</v>
+        <v>0.0004205705772619694</v>
       </c>
       <c r="DE8" t="n">
-        <v>3.77506366930902e-05</v>
+        <v>0.000840037246234715</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0008930459152907133</v>
+        <v>0.0008445130079053342</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0008374580065719783</v>
+        <v>0.001472093397751451</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.001519701792858541</v>
+        <v>0.004991857334971428</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0009590957779437304</v>
+        <v>0.002161675598472357</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0004617719678208232</v>
+        <v>0.0009018041891977191</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.001342610456049442</v>
+        <v>0.0004837192827835679</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.000657625962048769</v>
+        <v>0.001363074406981468</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0002341856015846133</v>
+        <v>0.0003432419034652412</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.001236336072906852</v>
+        <v>0.000612858566455543</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.0005242119077593088</v>
+        <v>0.000589484057854861</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0003292002365924418</v>
+        <v>0.0007916422327980399</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.001128328498452902</v>
+        <v>0.000165687597473152</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0005029772873967886</v>
+        <v>0.0012954983394593</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0007553595933131874</v>
+        <v>0.0008766978280618787</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0008931150659918785</v>
+        <v>3.183133685524808e-07</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0003949691017623991</v>
+        <v>0.0001185957080451772</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0009734188788570464</v>
+        <v>0.001297847600653768</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.000704328587744385</v>
+        <v>0.0004883857909590006</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.261763100046664e-05</v>
+        <v>0.000356926757376641</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0002749153645709157</v>
+        <v>0.001802361686713994</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.002038078149780631</v>
+        <v>0.0001058964335243218</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0005559249548241496</v>
+        <v>0.001396189909428358</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0006380199920386076</v>
+        <v>0.00111044233199209</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0002787137636914849</v>
+        <v>0.0004318988940212876</v>
       </c>
       <c r="ED8" t="n">
-        <v>4.470208659768105e-05</v>
+        <v>0.0001577328366693109</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.001082234433852136</v>
+        <v>2.941202546935529e-05</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0001352529652649537</v>
+        <v>0.0001710765354800969</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.002019819803535938</v>
+        <v>0.001010282547213137</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0006135894218459725</v>
+        <v>5.289112596074119e-05</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0006303392583504319</v>
+        <v>0.0004231921921018511</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.003750824369490147</v>
+        <v>0.0006978517048992217</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.003043179167434573</v>
+        <v>0.0007906457176432014</v>
       </c>
       <c r="EL8" t="n">
-        <v>2.334903729206417e-05</v>
+        <v>0.0009810738265514374</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.002244864357635379</v>
+        <v>0.0002451882464811206</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.001301301061175764</v>
+        <v>0.0002727995743043721</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0009449458448216319</v>
+        <v>0.0003125258954241872</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0004574669292196631</v>
+        <v>0.0005763695808127522</v>
       </c>
       <c r="EQ8" t="n">
-        <v>4.313406680012122e-05</v>
+        <v>0.0007868068059906363</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0009116540313698351</v>
+        <v>2.251038677059114e-05</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.001217060373164713</v>
+        <v>0.0009317885269410908</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.001884395605884492</v>
+        <v>0.001531703630462289</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0007228069007396698</v>
+        <v>0.0004733549139928073</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0005638839211314917</v>
+        <v>0.001815655501559377</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.001979836961254478</v>
+        <v>0.0006733241607435048</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0002948726178146899</v>
+        <v>0.0002113434311468154</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.001204313477501273</v>
+        <v>0.001365896314382553</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.000415545015130192</v>
+        <v>0.0004566757124848664</v>
       </c>
       <c r="FA8" t="n">
-        <v>8.248869562521577e-05</v>
+        <v>0.0006823689327575266</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0008553339866921306</v>
+        <v>0.0003400935383979231</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.002085979096591473</v>
+        <v>0.0008793665328994393</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0007302057929337025</v>
+        <v>0.00053813261911273</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.001014205277897418</v>
+        <v>0.0001362530892947689</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.0009269117144867778</v>
+        <v>0.000720395240932703</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.001086542150005698</v>
+        <v>0.0004272917867638171</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.002142495941370726</v>
+        <v>0.000735656707547605</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.001952899387106299</v>
+        <v>0.001234420924447477</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0007330377120524645</v>
+        <v>0.001813541748560965</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.001985132694244385</v>
+        <v>0.0003034829860553145</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.001664478797465563</v>
+        <v>0.0002967443433590233</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.000764929223805666</v>
+        <v>9.526264329906553e-05</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0002765179960988462</v>
+        <v>0.0009879735298454762</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.002434723079204559</v>
+        <v>0.0009687514393590391</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0006876334664411843</v>
+        <v>2.466549631208181e-06</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.00218844972550869</v>
+        <v>0.0006031019147485495</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0006795104709453881</v>
+        <v>0.0007392372936010361</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.004619533196091652</v>
+        <v>2.409266016911715e-05</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0013538240455091</v>
+        <v>0.002389470580965281</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.003439474850893021</v>
+        <v>0.0003923128824681044</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0005533324438147247</v>
+        <v>0.001090862788259983</v>
       </c>
       <c r="FW8" t="n">
-        <v>8.632661774754524e-06</v>
+        <v>0.0005742839421145618</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.0006996160373091698</v>
+        <v>0.0006429253844544291</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0008863545954227448</v>
+        <v>0.001666984288021922</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0006026498740538955</v>
+        <v>8.868231816450134e-05</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0002713504654821008</v>
+        <v>2.711975412239553e-06</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0004737063427455723</v>
+        <v>1.569547202961985e-05</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.001117719686590135</v>
+        <v>0.0008731993730179965</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0001593607012182474</v>
+        <v>0.00108347658533603</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0006623699446208775</v>
+        <v>0.002954872557893395</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.002874351106584072</v>
+        <v>0.00057629169896245</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0004469543637242168</v>
+        <v>0.000787570548709482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001865033991634846</v>
+        <v>0.03837992623448372</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01263043563812971</v>
+        <v>0.2945789694786072</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000687059888150543</v>
+        <v>0.02956055849790573</v>
       </c>
       <c r="D9" t="n">
-        <v>8.269376121461391e-05</v>
+        <v>0.2084844708442688</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01054039318114519</v>
+        <v>0.02873272821307182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07540908455848694</v>
+        <v>0.2341400533914566</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01596076972782612</v>
+        <v>0.0123237818479538</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05537917464971542</v>
+        <v>0.1183061897754669</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01328964903950691</v>
+        <v>0.06322909891605377</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004494783002883196</v>
+        <v>0.08260549604892731</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009934148751199245</v>
+        <v>0.2487892508506775</v>
       </c>
       <c r="L9" t="n">
-        <v>3.541121259331703e-05</v>
+        <v>0.01630603335797787</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004568260163068771</v>
+        <v>0.1763207465410233</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0100697074085474</v>
+        <v>0.0196341872215271</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07427838444709778</v>
+        <v>0.2330509275197983</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00527401827275753</v>
+        <v>0.03541053086519241</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04842605069279671</v>
+        <v>0.01014022156596184</v>
       </c>
       <c r="R9" t="n">
-        <v>0.005633390508592129</v>
+        <v>0.03962930664420128</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006466502323746681</v>
+        <v>0.006562186405062675</v>
       </c>
       <c r="T9" t="n">
-        <v>0.003931141924113035</v>
+        <v>0.005184859968721867</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005225760862231255</v>
+        <v>0.03336030244827271</v>
       </c>
       <c r="V9" t="n">
-        <v>0.006292703561484814</v>
+        <v>0.0539013147354126</v>
       </c>
       <c r="W9" t="n">
-        <v>0.004589115269482136</v>
+        <v>0.07146322727203369</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01816404238343239</v>
+        <v>0.02233741618692875</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.007042735815048218</v>
+        <v>0.0257448423653841</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.001675384002737701</v>
+        <v>0.05132608115673065</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001028427155688405</v>
+        <v>0.0431319996714592</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.005023636389523745</v>
+        <v>0.02818109095096588</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01118068397045135</v>
+        <v>0.007905134931206703</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.001684227609075606</v>
+        <v>0.03212452679872513</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01346317864954472</v>
+        <v>0.003669625148177147</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04343494772911072</v>
+        <v>0.02159903571009636</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.009390607476234436</v>
+        <v>0.02494514361023903</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.01205138582736254</v>
+        <v>0.002252459526062012</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.00363842910155654</v>
+        <v>0.01437826827168465</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.001295387744903564</v>
+        <v>0.0241541750729084</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.009123142808675766</v>
+        <v>0.04340948164463043</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.000677779084071517</v>
+        <v>0.03063660860061646</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.01494239922612906</v>
+        <v>0.01838213764131069</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.006805501878261566</v>
+        <v>0.02332080155611038</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01021224912256002</v>
+        <v>0.01611657068133354</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.008222264237701893</v>
+        <v>0.03786054998636246</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.005707839969545603</v>
+        <v>0.01391921937465668</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.002289020689204335</v>
+        <v>0.03627727180719376</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.006502752192318439</v>
+        <v>0.03520189598202705</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.005855423863977194</v>
+        <v>0.002768121659755707</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.00442619901150465</v>
+        <v>0.1732704192399979</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.01033760327845812</v>
+        <v>0.01717520132660866</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.01038813777267933</v>
+        <v>0.07383725792169571</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.000560492742806673</v>
+        <v>0.04371413961052895</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.02353654801845551</v>
+        <v>0.1154498383402824</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.005197055637836456</v>
+        <v>0.04714128747582436</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.01003804989159107</v>
+        <v>0.02106650546193123</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.002963114995509386</v>
+        <v>0.07381860911846161</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.005263546947389841</v>
+        <v>0.03033881448209286</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.01065049320459366</v>
+        <v>0.07713790982961655</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.006159603595733643</v>
+        <v>0.07756264507770538</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.01134121976792812</v>
+        <v>0.02615742385387421</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.007038570940494537</v>
+        <v>0.02743617817759514</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.01665959134697914</v>
+        <v>0.02615241333842278</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0115533359348774</v>
+        <v>0.03730317205190659</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.02514341473579407</v>
+        <v>0.02153527177870274</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.002539908746257424</v>
+        <v>0.04019083827733994</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.008717019110918045</v>
+        <v>0.01605235412716866</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.003557565156370401</v>
+        <v>0.05254020541906357</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.002236380940303206</v>
+        <v>0.03780696541070938</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.007071270607411861</v>
+        <v>0.01583096385002136</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01407400611788034</v>
+        <v>0.001976984553039074</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.01028436422348022</v>
+        <v>0.007261347956955433</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.002667849883437157</v>
+        <v>0.01816988363862038</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.005784210283309221</v>
+        <v>0.02393189072608948</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.005512042436748743</v>
+        <v>0.008733099326491356</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.01017303485423326</v>
+        <v>0.009954320266842842</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.005776732228696346</v>
+        <v>0.1038461029529572</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.00171497673727572</v>
+        <v>0.04418233036994934</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.02124069631099701</v>
+        <v>0.06307001411914825</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.01013623364269733</v>
+        <v>0.01727957278490067</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.03181396052241325</v>
+        <v>0.0812780037522316</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.002968559972941875</v>
+        <v>0.004643460735678673</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.01609006151556969</v>
+        <v>0.01908772252500057</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.008668071590363979</v>
+        <v>0.04683565348386765</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.001154747791588306</v>
+        <v>0.01014438085258007</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.006687085144221783</v>
+        <v>0.04149911180138588</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.001785148167982697</v>
+        <v>0.04232902824878693</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.003645171178504825</v>
+        <v>0.02999713830649853</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0002447459846735001</v>
+        <v>0.007893563248217106</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.01184911839663982</v>
+        <v>0.03652515634894371</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.002765146782621741</v>
+        <v>0.02032153494656086</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.007337297312915325</v>
+        <v>0.02437444403767586</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.002818590961396694</v>
+        <v>0.03116686455905437</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.01899993792176247</v>
+        <v>0.04193397611379623</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.006220383103936911</v>
+        <v>0.01373403426259756</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.006763127632439137</v>
+        <v>0.004307040013372898</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0025165646802634</v>
+        <v>0.03917759284377098</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.007024828344583511</v>
+        <v>0.0006853643571957946</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.01297102868556976</v>
+        <v>0.02546259015798569</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.005986897274851799</v>
+        <v>0.06357265263795853</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.02017569914460182</v>
+        <v>0.03847917914390564</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.003484737128019333</v>
+        <v>0.004840003326535225</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.00142212538048625</v>
+        <v>0.005149221513420343</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.006996582262217999</v>
+        <v>0.03916443139314651</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.001948730321601033</v>
+        <v>0.04421691223978996</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.004353977739810944</v>
+        <v>0.04195374622941017</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.002897591330111027</v>
+        <v>0.008309546858072281</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.01268125511705875</v>
+        <v>0.04213190451264381</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.003801180981099606</v>
+        <v>0.01859232969582081</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01023618038743734</v>
+        <v>0.03993063420057297</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.002846885472536087</v>
+        <v>0.01934199966490269</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.007975254207849503</v>
+        <v>0.004953333176672459</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.002922731451690197</v>
+        <v>0.01022610627114773</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.004442034289240837</v>
+        <v>0.01420621015131474</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.0005618419963866472</v>
+        <v>0.131739616394043</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.005414880346506834</v>
+        <v>0.05312180146574974</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0015268410788849</v>
+        <v>0.01232713554054499</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.007934533059597015</v>
+        <v>0.03362345695495605</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.005849513225257397</v>
+        <v>0.04623018205165863</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.002025595400482416</v>
+        <v>0.04030603542923927</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.006732756737619638</v>
+        <v>0.008042348548769951</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.0002104338491335511</v>
+        <v>0.01683894172310829</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.001429948722943664</v>
+        <v>0.02460617385804653</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0074842544272542</v>
+        <v>0.01211644150316715</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.01154514867812395</v>
+        <v>0.005419318564236164</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.008889156393706799</v>
+        <v>0.01477782242000103</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.003098552813753486</v>
+        <v>0.01810738630592823</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.002965664956718683</v>
+        <v>0.002873830962926149</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0002751426945906132</v>
+        <v>0.04039959982037544</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.008783650584518909</v>
+        <v>0.006361281499266624</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.004904570523649454</v>
+        <v>0.01455559208989143</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.0004554104234557599</v>
+        <v>0.05421287938952446</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.008020807057619095</v>
+        <v>0.01680057123303413</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.01277028862386942</v>
+        <v>0.01513343397527933</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.0004580114036798477</v>
+        <v>0.0433601401746273</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.003240654012188315</v>
+        <v>0.0084197036921978</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.007244046777486801</v>
+        <v>0.009416090324521065</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.003040619427338243</v>
+        <v>0.01359665114432573</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.00287610967643559</v>
+        <v>0.01283395476639271</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.007021712139248848</v>
+        <v>0.03980148583650589</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.002165771089494228</v>
+        <v>0.03815652430057526</v>
       </c>
       <c r="EI9" t="n">
-        <v>5.613313987851143e-05</v>
+        <v>0.007616082206368446</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01097691152244806</v>
+        <v>0.01548765320330858</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.02133597061038017</v>
+        <v>0.03097440302371979</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.002711329841986299</v>
+        <v>0.02148771658539772</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.01325841248035431</v>
+        <v>0.01449339464306831</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.00529406638815999</v>
+        <v>0.0112515352666378</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.004648889414966106</v>
+        <v>0.008891841396689415</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.02547331713140011</v>
+        <v>0.01508914399892092</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.001937713823281229</v>
+        <v>0.03127239644527435</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.003827010048553348</v>
+        <v>0.0425514318048954</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.008776416070759296</v>
+        <v>0.001386278308928013</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.009859355166554451</v>
+        <v>0.03571928665041924</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.005181006155908108</v>
+        <v>0.0472843237221241</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.01007755380123854</v>
+        <v>0.09077123552560806</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.003040049225091934</v>
+        <v>0.0005052355118095875</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.0007951431325636804</v>
+        <v>0.003240616293624043</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.003850033273920417</v>
+        <v>0.03078688494861126</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.00158492405898869</v>
+        <v>0.0353202149271965</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.007165976800024509</v>
+        <v>0.04165896773338318</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.002585289068520069</v>
+        <v>0.0119330333545804</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.01254725083708763</v>
+        <v>0.03102517127990723</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.003255312563851476</v>
+        <v>0.03848791867494583</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.00682775117456913</v>
+        <v>0.02842466160655022</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.00120381754823029</v>
+        <v>0.02920215204358101</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.002366982866078615</v>
+        <v>0.01987257227301598</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.001240534009411931</v>
+        <v>0.03649252280592918</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.0007604147540405393</v>
+        <v>0.0364195704460144</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.00412737624719739</v>
+        <v>0.05659700930118561</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.000782789895310998</v>
+        <v>0.002246224554255605</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.01134578045457602</v>
+        <v>0.004853134043514729</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.01002794597297907</v>
+        <v>0.002169007435441017</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.006958962418138981</v>
+        <v>0.02160563878715038</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.00938000250607729</v>
+        <v>0.01722986623644829</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.005075604654848576</v>
+        <v>0.01824634335935116</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.002515628002583981</v>
+        <v>0.0425834134221077</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.003195737954229116</v>
+        <v>0.05070240795612335</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.001212348230183125</v>
+        <v>0.06136244162917137</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0095859095454216</v>
+        <v>0.04526286572217941</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.01159718818962574</v>
+        <v>0.04712728038430214</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.01184110809117556</v>
+        <v>0.0689186230301857</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.01127519086003304</v>
+        <v>0.009614141657948494</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.003980315290391445</v>
+        <v>0.004281254019588232</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.007939495146274567</v>
+        <v>0.04842210561037064</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.009575666859745979</v>
+        <v>0.02572094462811947</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.008178961463272572</v>
+        <v>0.02831648476421833</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.01811063289642334</v>
+        <v>0.02310745976865292</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.005079580936580896</v>
+        <v>0.003296008333563805</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.01228121668100357</v>
+        <v>0.0009515462443232536</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.004122206009924412</v>
+        <v>0.1447024494409561</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.004839649889618158</v>
+        <v>0.002518751658499241</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0004097882192581892</v>
+        <v>0.009028416126966476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04098379984498024</v>
+        <v>0.008299974724650383</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02161618508398533</v>
+        <v>0.3873125314712524</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3082324266433716</v>
+        <v>0.02727349661290646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004364978522062302</v>
+        <v>0.05286598578095436</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1623064875602722</v>
+        <v>0.1551259607076645</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4179090261459351</v>
+        <v>0.01913365162909031</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0907682403922081</v>
+        <v>0.002353314310312271</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07480382919311523</v>
+        <v>0.03213927149772644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05401331931352615</v>
+        <v>0.01424253173172474</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02604752779006958</v>
+        <v>0.04628337547183037</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06533601135015488</v>
+        <v>0.3268863260746002</v>
       </c>
       <c r="L10" t="n">
-        <v>0.296649307012558</v>
+        <v>0.0191385094076395</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0865929052233696</v>
+        <v>0.05786970257759094</v>
       </c>
       <c r="N10" t="n">
-        <v>0.107154056429863</v>
+        <v>0.1941363215446472</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4137221872806549</v>
+        <v>0.09056119620800018</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04731928184628487</v>
+        <v>0.06740052253007889</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02960515953600407</v>
+        <v>0.0317329615354538</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08899994939565659</v>
+        <v>0.02343046106398106</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04705226421356201</v>
+        <v>0.0413622073829174</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01928275637328625</v>
+        <v>0.1209405511617661</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0184037983417511</v>
+        <v>0.01710517890751362</v>
       </c>
       <c r="V10" t="n">
-        <v>0.008966708555817604</v>
+        <v>0.002535882405936718</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01071423850953579</v>
+        <v>0.0185773316770792</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06467120349407196</v>
+        <v>0.03488427028059959</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04176918044686317</v>
+        <v>0.02508742362260818</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09716507792472839</v>
+        <v>0.08898938447237015</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01864200457930565</v>
+        <v>0.04087405279278755</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.009549533016979694</v>
+        <v>0.06172885745763779</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.122625857591629</v>
+        <v>0.01253431476652622</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01627462916076183</v>
+        <v>0.0281685758382082</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01181929465383291</v>
+        <v>0.01134559605270624</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1749915033578873</v>
+        <v>0.02319658361375332</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.02765834704041481</v>
+        <v>0.04431513696908951</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.06704048812389374</v>
+        <v>0.02343316003680229</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.09535588324069977</v>
+        <v>0.01177136600017548</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1079665198922157</v>
+        <v>0.006786125712096691</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.02918090671300888</v>
+        <v>0.06219349801540375</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.008896434679627419</v>
+        <v>0.09044805914163589</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.124573178589344</v>
+        <v>0.003515368793159723</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.009270088747143745</v>
+        <v>0.01265367679297924</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0190099012106657</v>
+        <v>0.03718750923871994</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.07893461734056473</v>
+        <v>0.02923553623259068</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.02395327389240265</v>
+        <v>0.01528065651655197</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.03300117701292038</v>
+        <v>0.004519968293607235</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.02610474824905396</v>
+        <v>0.04153406620025635</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.06432166695594788</v>
+        <v>0.09349445253610611</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.006286920979619026</v>
+        <v>0.2774709165096283</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1502162367105484</v>
+        <v>0.02751256711781025</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.07804515957832336</v>
+        <v>0.04709737747907639</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.08303195238113403</v>
+        <v>0.03756580874323845</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.1516876518726349</v>
+        <v>0.07277418673038483</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.012292155995965</v>
+        <v>0.07744827121496201</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.01819773763418198</v>
+        <v>0.02599387057125568</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.04084555432200432</v>
+        <v>0.02855479344725609</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.02320170402526855</v>
+        <v>0.04658710211515427</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.01457121688872576</v>
+        <v>0.03300904110074043</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.004365995526313782</v>
+        <v>0.06140578538179398</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.02600628323853016</v>
+        <v>0.01602318324148655</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.1981069445610046</v>
+        <v>0.09133403748273849</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.1116471290588379</v>
+        <v>0.01116914860904217</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.09128911048173904</v>
+        <v>0.05477908998727798</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.002349622547626495</v>
+        <v>0.02741166576743126</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.009876059368252754</v>
+        <v>0.003017141483724117</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.008808605372905731</v>
+        <v>0.02508083917200565</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.01506886724382639</v>
+        <v>0.04445794969797134</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.04231393337249756</v>
+        <v>0.007968166843056679</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.03891885280609131</v>
+        <v>0.01005307212471962</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.01501890923827887</v>
+        <v>0.07738437503576279</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.006066083908081055</v>
+        <v>0.05444987863302231</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.002205699682235718</v>
+        <v>0.006814261898398399</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.07053188979625702</v>
+        <v>0.01932757161557674</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.04177052527666092</v>
+        <v>0.02908073551952839</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.04365953430533409</v>
+        <v>0.04205448180437088</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.04469379037618637</v>
+        <v>0.1905871629714966</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.1057059615850449</v>
+        <v>0.04630936309695244</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0007466004462912679</v>
+        <v>0.04278544336557388</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.003087645396590233</v>
+        <v>0.00790349580347538</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.1696233749389648</v>
+        <v>0.01950589753687382</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0496225580573082</v>
+        <v>0.0149007011204958</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.01924971304833889</v>
+        <v>0.04474034160375595</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.03522508963942528</v>
+        <v>0.03240101039409637</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.008363770321011543</v>
+        <v>0.01105220057070255</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.005634050816297531</v>
+        <v>0.06508419662714005</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.05703862383961678</v>
+        <v>0.03121090307831764</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.02606021985411644</v>
+        <v>0.006053047254681587</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02117566019296646</v>
+        <v>0.01250853948295116</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.08257858455181122</v>
+        <v>0.00285418494604528</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.006169656757265329</v>
+        <v>0.02925322949886322</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.003394070081412792</v>
+        <v>0.007653538603335619</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.005230252631008625</v>
+        <v>0.02015135809779167</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.07094600051641464</v>
+        <v>0.1596435159444809</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.004555059596896172</v>
+        <v>0.04230109974741936</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.116691954433918</v>
+        <v>0.01134089939296246</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.03260185569524765</v>
+        <v>0.03781550005078316</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.07593245804309845</v>
+        <v>0.1029697880148888</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.05578920245170593</v>
+        <v>0.01702039688825607</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.05863095819950104</v>
+        <v>0.07557576894760132</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.03074717149138451</v>
+        <v>0.07412710785865784</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.09516490250825882</v>
+        <v>0.04663658887147903</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.01914487592875957</v>
+        <v>0.005908668506890535</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.005268126726150513</v>
+        <v>0.0622248686850071</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.04878253489732742</v>
+        <v>0.04097681865096092</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.02986412681639194</v>
+        <v>0.02264820225536823</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.05261790007352829</v>
+        <v>0.002756861271336675</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.07858508080244064</v>
+        <v>0.002337145386263728</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.008220119401812553</v>
+        <v>0.02819210104644299</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.02728971838951111</v>
+        <v>0.01632615365087986</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.002413946203887463</v>
+        <v>0.0156110841780901</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.008919300511479378</v>
+        <v>0.03269164264202118</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0648702085018158</v>
+        <v>0.1084062159061432</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0494668036699295</v>
+        <v>0.02195143513381481</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.04431378841400146</v>
+        <v>0.0995907261967659</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.07023700326681137</v>
+        <v>0.06442427635192871</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.05107295140624046</v>
+        <v>0.04075644910335541</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.07568669319152832</v>
+        <v>0.001755779609084129</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.1138771995902061</v>
+        <v>0.01055288501083851</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.04035172238945961</v>
+        <v>0.01138241123408079</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.003470885567367077</v>
+        <v>0.001217828597873449</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.03553242981433868</v>
+        <v>0.04627451673150063</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.01153037324547768</v>
+        <v>0.03163500875234604</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0213202778249979</v>
+        <v>0.01070332527160645</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.03569148480892181</v>
+        <v>0.02907108888030052</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.003309403778985143</v>
+        <v>0.024177186191082</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.02885304763913155</v>
+        <v>0.05009216070175171</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.02049620077013969</v>
+        <v>0.0015675975009799</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.02614004909992218</v>
+        <v>0.03069238737225533</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.05618876591324806</v>
+        <v>0.0142991729080677</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.00458004605025053</v>
+        <v>0.1191990152001381</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0104390662163496</v>
+        <v>0.06496235728263855</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.03299713134765625</v>
+        <v>0.003093154169619083</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01706840470433235</v>
+        <v>0.05496123433113098</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.01404726319015026</v>
+        <v>0.02349062636494637</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.05379638820886612</v>
+        <v>0.001741299172863364</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.02376221492886543</v>
+        <v>0.02971429377794266</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.01594562828540802</v>
+        <v>0.01675989665091038</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.007150494959205389</v>
+        <v>0.0355534553527832</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0564594678580761</v>
+        <v>0.009056962095201015</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.06603863835334778</v>
+        <v>0.01135700941085815</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.009862327948212624</v>
+        <v>0.01328668370842934</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.08821821212768555</v>
+        <v>0.0030531648080796</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.1037984862923622</v>
+        <v>0.02788866125047207</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.01242319215089083</v>
+        <v>0.02291486784815788</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0033940514549613</v>
+        <v>0.0110674099996686</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.04346747323870659</v>
+        <v>0.001238303491845727</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.02731053531169891</v>
+        <v>0.009814428165555</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.03374973684549332</v>
+        <v>0.02071762457489967</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.003187176771461964</v>
+        <v>0.07306103408336639</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.02194699831306934</v>
+        <v>0.01051667146384716</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.002160629257559776</v>
+        <v>0.003896386828273535</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.02556814812123775</v>
+        <v>0.02233793027698994</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.06079211458563805</v>
+        <v>0.07634083181619644</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.04345595091581345</v>
+        <v>0.1029572635889053</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.06325295567512512</v>
+        <v>0.007663208059966564</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0002749256091192365</v>
+        <v>0.01155710872262716</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.01522369869053364</v>
+        <v>0.05964044854044914</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.04942597448825836</v>
+        <v>0.03399433568120003</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.02301321551203728</v>
+        <v>0.001974440179765224</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.05054881051182747</v>
+        <v>0.001933761639520526</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0682801753282547</v>
+        <v>0.00019648447050713</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.006192028522491455</v>
+        <v>0.03943764045834541</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02129710093140602</v>
+        <v>0.005827436223626137</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.00245470367372036</v>
+        <v>0.02757642976939678</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.05246204510331154</v>
+        <v>0.0002360076759941876</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.005404284689575434</v>
+        <v>0.03829634562134743</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.06876341253519058</v>
+        <v>0.07089319080114365</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.02448791824281216</v>
+        <v>0.02616419270634651</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.004514279309660196</v>
+        <v>0.004375333897769451</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.05445033311843872</v>
+        <v>0.03268257901072502</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0778936892747879</v>
+        <v>0.01578279212117195</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.006214059889316559</v>
+        <v>0.03992024809122086</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.01569942012429237</v>
+        <v>0.01630799286067486</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.1865561753511429</v>
+        <v>0.05139384791254997</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.05590213462710381</v>
+        <v>0.06728055328130722</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.1124552041292191</v>
+        <v>0.04155415669083595</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.1049022451043129</v>
+        <v>0.01595191657543182</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.05353167653083801</v>
+        <v>0.002061100676655769</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.1674969792366028</v>
+        <v>0.01037608180195093</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.01498780213296413</v>
+        <v>0.05038772523403168</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.02062073163688183</v>
+        <v>0.03266351670026779</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.05080367997288704</v>
+        <v>0.01339152082800865</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.02861733548343182</v>
+        <v>0.08038975298404694</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.02373271808028221</v>
+        <v>0.02848309651017189</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.03037287481129169</v>
+        <v>0.03601043671369553</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.00926576741039753</v>
+        <v>0.03848288580775261</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.03840701282024384</v>
+        <v>0.03119662776589394</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.007621207274496555</v>
+        <v>0.06355136632919312</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0005940715782344341</v>
+        <v>0.1241431534290314</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.09782133996486664</v>
+        <v>0.01405136100947857</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.04136039689183235</v>
+        <v>0.008802760392427444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008859295397996902</v>
+        <v>0.0001171166441054083</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03171634301543236</v>
+        <v>0.001237048185430467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03347476944327354</v>
+        <v>0.0001067018674802966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05855018272995949</v>
+        <v>0.0004314736288506538</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001027839258313179</v>
+        <v>0.0003088231314904988</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1786279529333115</v>
+        <v>0.0006134618306532502</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02832088619470596</v>
+        <v>5.732083081966266e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1250499784946442</v>
+        <v>0.0003735339269042015</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04519640654325485</v>
+        <v>6.168369509396143e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01724466495215893</v>
+        <v>0.000218141358345747</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005774995312094688</v>
+        <v>0.001158298342488706</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03970362618565559</v>
+        <v>1.446435453544836e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0547695979475975</v>
+        <v>0.0002432382898405194</v>
       </c>
       <c r="N11" t="n">
-        <v>0.034969262778759</v>
+        <v>1.148731826106086e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1576086729764938</v>
+        <v>0.0006787022575736046</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01107044797390699</v>
+        <v>7.027263927739114e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1281584352254868</v>
+        <v>0.0001337644644081593</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08046214282512665</v>
+        <v>3.434595419093966e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01764339208602905</v>
+        <v>4.552691098069772e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01238476578146219</v>
+        <v>0.0001019271439872682</v>
       </c>
       <c r="U11" t="n">
-        <v>0.009364960715174675</v>
+        <v>6.771088374080136e-05</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03641775622963905</v>
+        <v>0.0001876055321190506</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04429053142666817</v>
+        <v>0.0001159649837063625</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02445331029593945</v>
+        <v>6.212814696482383e-06</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01828141324222088</v>
+        <v>2.402502832410391e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01533904671669006</v>
+        <v>0.0001151540491264313</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001737736631184816</v>
+        <v>3.298263618489727e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0003787288442254066</v>
+        <v>1.940578658832237e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.009919610805809498</v>
+        <v>1.087259988707956e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.000670520355924964</v>
+        <v>4.072104638908058e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03059072606265545</v>
+        <v>9.967650839826092e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.04993116855621338</v>
+        <v>9.171065903501585e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.00372714689001441</v>
+        <v>9.97924325929489e-06</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04500691220164299</v>
+        <v>1.886056452349294e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.004363737534731627</v>
+        <v>0.00010916428436758</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01058131083846092</v>
+        <v>7.179049134720117e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.005558229517191648</v>
+        <v>0.0002299183834111318</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01555577199906111</v>
+        <v>8.248706581071019e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.02938513644039631</v>
+        <v>1.746865382301621e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01251473184674978</v>
+        <v>9.815226803766564e-06</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.05053071677684784</v>
+        <v>6.595397280761972e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.03013447672128677</v>
+        <v>0.0001731083902996033</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.004214107058942318</v>
+        <v>4.989786248188466e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0178622305393219</v>
+        <v>0.0001092257371055894</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.008278202265501022</v>
+        <v>0.0001408308889949694</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.002122259698808193</v>
+        <v>2.921795021393336e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.007276207208633423</v>
+        <v>0.000686386541929096</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.01225310005247593</v>
+        <v>0.0001776876015355811</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01975171081721783</v>
+        <v>3.172630749759264e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.005442201159894466</v>
+        <v>0.0002155125694116578</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.08196268975734711</v>
+        <v>0.0002793985768221319</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.002049603499472141</v>
+        <v>8.236093708546832e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.06639771163463593</v>
+        <v>0.0001498496276326478</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.02699127793312073</v>
+        <v>0.0001002957942546345</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.007696677464991808</v>
+        <v>3.35571967298165e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.009168470278382301</v>
+        <v>0.000255537626799196</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.01669124327600002</v>
+        <v>0.0003351273480802774</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0585649199783802</v>
+        <v>3.310872489237227e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.025087621062994</v>
+        <v>8.064659050432965e-05</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.03086575120687485</v>
+        <v>0.0001000667907646857</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.01279752608388662</v>
+        <v>0.0001175436555058695</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.03264591470360756</v>
+        <v>5.158224666956812e-05</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.01257234066724777</v>
+        <v>4.267237090971321e-05</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.01325130648910999</v>
+        <v>8.67922353791073e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01430647913366556</v>
+        <v>0.0001645397569518536</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.005485368426889181</v>
+        <v>0.0001411358680343255</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.00214356929063797</v>
+        <v>3.725633723661304e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.009463513270020485</v>
+        <v>4.047788388561457e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01834632828831673</v>
+        <v>3.611511419876479e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0191776230931282</v>
+        <v>7.142277172533795e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.00688994349911809</v>
+        <v>8.146472828229889e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.008973616175353527</v>
+        <v>0.0001771178212948143</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.02145813032984734</v>
+        <v>3.812959403148852e-05</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.002020369982346892</v>
+        <v>0.0004195033689029515</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.003725570160895586</v>
+        <v>0.0001338043803116307</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.006829394493252039</v>
+        <v>1.615720975678414e-05</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.007656976580619812</v>
+        <v>9.103412594413385e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.05813394114375114</v>
+        <v>0.0001687228505034</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.01414408814162016</v>
+        <v>2.878321356547531e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.04088821262121201</v>
+        <v>5.570114080910571e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01743340864777565</v>
+        <v>4.579787855618633e-05</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.01439310051500797</v>
+        <v>4.315476326155476e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.006530728656798601</v>
+        <v>0.0002360898215556517</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.009431025944650173</v>
+        <v>9.1514055384323e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.02488287165760994</v>
+        <v>7.011259731370956e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.006875216960906982</v>
+        <v>5.832851456943899e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.03025179542601109</v>
+        <v>4.306236587581225e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.006369692273437977</v>
+        <v>6.251956074265763e-05</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.01540804002434015</v>
+        <v>8.669171074870974e-05</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.004596571903675795</v>
+        <v>6.106386717874557e-05</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.04027210921049118</v>
+        <v>0.0002791569568216801</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01155408378690481</v>
+        <v>0.0001084002433344722</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.01179807074368</v>
+        <v>5.603586487268331e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.03541835397481918</v>
+        <v>0.0002151614025933668</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.05115728080272675</v>
+        <v>0.0001465432142140344</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.03369573876261711</v>
+        <v>0.0003277101495768875</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.01492080558091402</v>
+        <v>0.0002248292585136369</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.02280155383050442</v>
+        <v>6.952360126888379e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.02259252965450287</v>
+        <v>5.762340151704848e-05</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.01401479076594114</v>
+        <v>3.773729258682579e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.01353525370359421</v>
+        <v>0.0002261948538944125</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.009481092914938927</v>
+        <v>0.0001248415355803445</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.01838190481066704</v>
+        <v>0.000122028446639888</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.008863682858645916</v>
+        <v>5.122640504851006e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.03521805629134178</v>
+        <v>6.338359526125714e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.002678390126675367</v>
+        <v>5.995520405122079e-05</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.02582612261176109</v>
+        <v>0.0001494045718573034</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.003328854683786631</v>
+        <v>5.021639663027599e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.02800671756267548</v>
+        <v>0.0001370056997984648</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.03276712819933891</v>
+        <v>6.6605512984097e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001792874187231064</v>
+        <v>4.331540822022362e-06</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.03424135595560074</v>
+        <v>0.0004261558351572603</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.02441610395908356</v>
+        <v>0.0004867747484240681</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.03388709202408791</v>
+        <v>8.768583938945085e-05</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.03159553557634354</v>
+        <v>0.0001551551395095885</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.005367277190089226</v>
+        <v>0.0001668906043050811</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.03061887063086033</v>
+        <v>0.0001775909477146342</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.02557100355625153</v>
+        <v>7.034532609395683e-05</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01175113301724195</v>
+        <v>0.0001335168199148029</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.01779907196760178</v>
+        <v>8.827017154544592e-05</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.02146994881331921</v>
+        <v>0.0001425681984983385</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02025381475687027</v>
+        <v>4.019356128992513e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.01274792663753033</v>
+        <v>9.399465488968417e-05</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.009996491484344006</v>
+        <v>5.445639544632286e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.00167531706392765</v>
+        <v>0.0001296676200581715</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.01663642749190331</v>
+        <v>5.699021494365297e-05</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.00228895153850317</v>
+        <v>3.70309135178104e-06</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0005968507612124085</v>
+        <v>5.746578608523123e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.000938442419283092</v>
+        <v>0.0001308555947616696</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.008869897574186325</v>
+        <v>2.62122048297897e-05</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.001551981084048748</v>
+        <v>7.160037057474256e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.01379404775798321</v>
+        <v>4.216229353914969e-05</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.005117274820804596</v>
+        <v>9.528168448014185e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.005969934165477753</v>
+        <v>2.266719457111321e-05</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.00927805807441473</v>
+        <v>8.482078555971384e-05</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.03328707814216614</v>
+        <v>0.0002097113756462932</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.01044241152703762</v>
+        <v>0.0002718578616622835</v>
       </c>
       <c r="EH11" t="n">
-        <v>9.296748612541705e-05</v>
+        <v>0.0001542687678011134</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.02000199817121029</v>
+        <v>7.639691466465592e-05</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.009895500726997852</v>
+        <v>6.392368231900036e-05</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.03984927758574486</v>
+        <v>5.531381611945108e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.00282082729972899</v>
+        <v>4.676752723753452e-05</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.01620009541511536</v>
+        <v>3.519750316627324e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.002251174533739686</v>
+        <v>1.894168417493347e-05</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.01733957603573799</v>
+        <v>4.368257577880286e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.01018520817160606</v>
+        <v>0.0001042201110976748</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.004007400944828987</v>
+        <v>0.0001334457192569971</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.02205031178891659</v>
+        <v>0.0001554163900436834</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.007897741161286831</v>
+        <v>6.048800423741341e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.004506122786551714</v>
+        <v>0.0001966887502931058</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.01337290275841951</v>
+        <v>0.0001422098866896704</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0343940481543541</v>
+        <v>0.0002619430888444185</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.009846391156315804</v>
+        <v>5.336994217941537e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0137320077046752</v>
+        <v>5.828135181218386e-05</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01154758408665657</v>
+        <v>0.0002111710928147659</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.01184670999646187</v>
+        <v>0.0001042448639054783</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.02212249115109444</v>
+        <v>5.717070598620921e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.008156351745128632</v>
+        <v>4.964388426742516e-05</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.03184772282838821</v>
+        <v>4.557760621537454e-05</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.00629932526499033</v>
+        <v>8.314280421473086e-05</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0260360985994339</v>
+        <v>0.0001354932901449502</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.001526787877082825</v>
+        <v>7.210381590994075e-05</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.003319691866636276</v>
+        <v>6.569868128281087e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0145416771993041</v>
+        <v>1.130351756728487e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01274901069700718</v>
+        <v>0.000204478099476546</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.03188052028417587</v>
+        <v>0.0001143027839134447</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.003330495208501816</v>
+        <v>0.0001065230462700129</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.009324980899691582</v>
+        <v>0.0001495410542702302</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.002619056729599833</v>
+        <v>6.078604201320559e-06</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.01272061746567488</v>
+        <v>0.0001022393407765776</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.01137086097151041</v>
+        <v>7.502325752284378e-05</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.01040305104106665</v>
+        <v>0.0001868995896074921</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01451345253735781</v>
+        <v>2.495248190825805e-05</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.00310908630490303</v>
+        <v>0.0002367871784372255</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.07887619733810425</v>
+        <v>3.807336543104611e-05</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.006789184175431728</v>
+        <v>0.0001447061513317749</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.07290190458297729</v>
+        <v>6.609542469959706e-05</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.01861623674631119</v>
+        <v>3.823870792984962e-05</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.03332890570163727</v>
+        <v>1.530443114461377e-06</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.01864121481776237</v>
+        <v>1.691376564849634e-05</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.006261126138269901</v>
+        <v>0.0002291093696840107</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.003043806878849864</v>
+        <v>9.376340312883258e-05</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.01385813485831022</v>
+        <v>0.0001315207919105887</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.01767623424530029</v>
+        <v>4.661342245526612e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0127404760569334</v>
+        <v>4.06546205340419e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.006477102637290955</v>
+        <v>0.0001466636313125491</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.01477402169257402</v>
+        <v>0.0002653019037097692</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.001178053207695484</v>
+        <v>3.391452992218547e-05</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.008828147314488888</v>
+        <v>0.000152897642692551</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0001308644714299589</v>
+        <v>0.0001249665656359866</v>
       </c>
       <c r="B12" t="n">
-        <v>1.350350066786632e-05</v>
+        <v>0.003868176136165857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003735599457286298</v>
+        <v>9.836276876740158e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002554176317062229</v>
+        <v>0.0006247262936085463</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001472516742069274</v>
+        <v>0.001497651799581945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001350497477687895</v>
+        <v>0.0004911727737635374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002125779865309596</v>
+        <v>0.0001788444060366601</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007885390659794211</v>
+        <v>0.0005417066859081388</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002745467354543507</v>
+        <v>2.488811878720298e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001554463378852233</v>
+        <v>3.765890141949058e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001243152801180258</v>
+        <v>0.003379252506420016</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003543123311828822</v>
+        <v>0.0006403201259672642</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0001635354710742831</v>
+        <v>3.880217991536483e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.70610975753516e-05</v>
+        <v>0.0009862065780907869</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001145207555964589</v>
+        <v>0.0006737833609804511</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0001547224674141034</v>
+        <v>0.0001403860806021839</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0006978993187658489</v>
+        <v>0.0001442421053070575</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0003728918090928346</v>
+        <v>3.168168041156605e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001924774114741012</v>
+        <v>3.705840208567679e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>4.570101737044752e-05</v>
+        <v>0.0004803587798960507</v>
       </c>
       <c r="U12" t="n">
-        <v>5.238630183157511e-05</v>
+        <v>7.85202719271183e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001133120822487399</v>
+        <v>0.0004044164670631289</v>
       </c>
       <c r="W12" t="n">
-        <v>8.666299981996417e-05</v>
+        <v>0.0007015583105385303</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0003636162145994604</v>
+        <v>0.000141356562380679</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.049239113461226e-05</v>
+        <v>9.002524166135117e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.942826439626515e-05</v>
+        <v>0.0006655477918684483</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.000167667109053582</v>
+        <v>0.0001770443341229111</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.034456651424989e-05</v>
+        <v>0.0002044109569396824</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0001047832192853093</v>
+        <v>9.011200745590031e-06</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.572782614151947e-05</v>
+        <v>0.0001038252958096564</v>
       </c>
       <c r="AE12" t="n">
-        <v>4.523561074165627e-05</v>
+        <v>5.316311217029579e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0004775877168867737</v>
+        <v>0.0002557969419285655</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.564837243175134e-05</v>
+        <v>6.943587504792958e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0002591052616480738</v>
+        <v>5.297542520565912e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0001136042628786527</v>
+        <v>0.0001972133904928342</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.466218757035676e-05</v>
+        <v>0.000339683931088075</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.128660167334601e-06</v>
+        <v>0.0006539238383993506</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.320028427988291e-05</v>
+        <v>0.0004238486289978027</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0001625655859243125</v>
+        <v>0.0001188211317639798</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.983362562896218e-05</v>
+        <v>2.100615165545605e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0002182119205826893</v>
+        <v>0.0004385246429592371</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0001331873354502022</v>
+        <v>0.000375264004105702</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.149930722021963e-05</v>
+        <v>3.067332727368921e-06</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.650663322536275e-05</v>
+        <v>0.0001436168095096946</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0001194404685520567</v>
+        <v>6.912053504493088e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.384771116543561e-05</v>
+        <v>3.355700391693972e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.222302909009159e-05</v>
+        <v>0.002568322466686368</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0002377943019382656</v>
+        <v>0.0003314708592370152</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.886992660933174e-05</v>
+        <v>0.0002425499260425568</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.139648808632046e-06</v>
+        <v>0.0008904673741199076</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0007951721199788153</v>
+        <v>0.0003942878101952374</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.123869307979476e-05</v>
+        <v>0.0002780619543045759</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0002075573138426989</v>
+        <v>0.0001000538759399205</v>
       </c>
       <c r="BB12" t="n">
-        <v>9.205131209455431e-05</v>
+        <v>4.740870645036921e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.376776658114977e-05</v>
+        <v>0.0004744438629131764</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0001967456191778183</v>
+        <v>0.000923574436455965</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0001641907874727622</v>
+        <v>0.0005980835994705558</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0002048626192845404</v>
+        <v>0.0001395020808558911</v>
       </c>
       <c r="BG12" t="n">
-        <v>3.870750515488908e-05</v>
+        <v>0.0006391920032911003</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0001098767388612032</v>
+        <v>0.0003957330191042274</v>
       </c>
       <c r="BI12" t="n">
-        <v>7.882544014137238e-05</v>
+        <v>0.0003678200591821223</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0004076106706634164</v>
+        <v>0.0002154509274987504</v>
       </c>
       <c r="BK12" t="n">
-        <v>8.395230543101206e-05</v>
+        <v>0.0001134665144491009</v>
       </c>
       <c r="BL12" t="n">
-        <v>4.946376793668605e-05</v>
+        <v>0.0003355027001816779</v>
       </c>
       <c r="BM12" t="n">
-        <v>5.109590711072087e-05</v>
+        <v>0.0007074463064782321</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0001189640242955647</v>
+        <v>0.0003579319745767862</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0001156202197307721</v>
+        <v>0.0001654216030146927</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0001415091537637636</v>
+        <v>0.0004059695638716221</v>
       </c>
       <c r="BQ12" t="n">
-        <v>8.597192936576903e-05</v>
+        <v>0.0002020283136516809</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0001093989994842559</v>
+        <v>4.065080429427326e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.427491224603727e-05</v>
+        <v>0.0001159036037279293</v>
       </c>
       <c r="BT12" t="n">
-        <v>5.777874321211129e-05</v>
+        <v>0.0001726977934595197</v>
       </c>
       <c r="BU12" t="n">
-        <v>9.949789091479033e-05</v>
+        <v>5.891526234336197e-05</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0001008212275337428</v>
+        <v>0.001568268868140876</v>
       </c>
       <c r="BW12" t="n">
-        <v>9.291885362472385e-06</v>
+        <v>0.0002494979707989842</v>
       </c>
       <c r="BX12" t="n">
-        <v>4.430484113981947e-05</v>
+        <v>0.0001440394553355873</v>
       </c>
       <c r="BY12" t="n">
-        <v>3.208306588931009e-05</v>
+        <v>0.0004767325590364635</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.000470878672786057</v>
+        <v>0.0001882490905700251</v>
       </c>
       <c r="CA12" t="n">
-        <v>6.86546482029371e-05</v>
+        <v>0.0001822855265345424</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0002036844816757366</v>
+        <v>0.000142455828608945</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0001189696413348429</v>
+        <v>0.0001074076644727029</v>
       </c>
       <c r="CD12" t="n">
-        <v>3.611331339925528e-05</v>
+        <v>0.0001107070711441338</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.0001441761269234121</v>
+        <v>0.000606117770075798</v>
       </c>
       <c r="CF12" t="n">
-        <v>8.628860814496875e-05</v>
+        <v>0.0001425347290933132</v>
       </c>
       <c r="CG12" t="n">
-        <v>9.994262654799968e-05</v>
+        <v>0.0001071679871529341</v>
       </c>
       <c r="CH12" t="n">
-        <v>3.22529231198132e-05</v>
+        <v>3.936531720682979e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0002400657249381766</v>
+        <v>1.257724306924501e-05</v>
       </c>
       <c r="CJ12" t="n">
-        <v>3.039761941181496e-05</v>
+        <v>0.0001754867262206972</v>
       </c>
       <c r="CK12" t="n">
-        <v>9.094520646613091e-05</v>
+        <v>9.86686791293323e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>5.785291432403028e-05</v>
+        <v>1.778869409463368e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>8.638869621790946e-05</v>
+        <v>0.0008421585662290454</v>
       </c>
       <c r="CN12" t="n">
-        <v>5.572362715611234e-05</v>
+        <v>0.0005413807230070233</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0001143876434070989</v>
+        <v>0.0002414977498119697</v>
       </c>
       <c r="CP12" t="n">
-        <v>4.921194340568036e-05</v>
+        <v>0.0001831045374274254</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.0002578896819613874</v>
+        <v>0.0004864432848989964</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0001566486316733062</v>
+        <v>0.0003917122085113078</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.0001157291408162564</v>
+        <v>0.0006204526289366186</v>
       </c>
       <c r="CT12" t="n">
-        <v>3.985553485108539e-05</v>
+        <v>0.0004868296382483095</v>
       </c>
       <c r="CU12" t="n">
-        <v>8.93424148671329e-05</v>
+        <v>0.0001204040090669878</v>
       </c>
       <c r="CV12" t="n">
-        <v>6.773291534045711e-05</v>
+        <v>9.1767986305058e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0001658991968724877</v>
+        <v>0.0004913857555948198</v>
       </c>
       <c r="CX12" t="n">
-        <v>9.738161315908656e-05</v>
+        <v>0.0002396461204625666</v>
       </c>
       <c r="CY12" t="n">
-        <v>7.689165067858994e-05</v>
+        <v>0.0002956481475848705</v>
       </c>
       <c r="CZ12" t="n">
-        <v>2.205814598710276e-05</v>
+        <v>7.333753455895931e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0002345930406590924</v>
+        <v>3.680675581563264e-05</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.736403828545008e-05</v>
+        <v>0.0001426751259714365</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.000167249032529071</v>
+        <v>0.0001769336085999385</v>
       </c>
       <c r="DD12" t="n">
-        <v>5.277877426124178e-05</v>
+        <v>2.290769771207124e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0002966732135973871</v>
+        <v>0.0003477345744613558</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.723498982959427e-05</v>
+        <v>0.0006204997189342976</v>
       </c>
       <c r="DG12" t="n">
-        <v>7.930432184366509e-05</v>
+        <v>1.276839611819014e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0001072006125468761</v>
+        <v>0.001365111558698118</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0001430386037100106</v>
+        <v>0.000622734718490392</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.0001688441552687436</v>
+        <v>0.0002375525946263224</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0002032044139923528</v>
+        <v>0.000241104542510584</v>
       </c>
       <c r="DL12" t="n">
-        <v>2.346131805097684e-05</v>
+        <v>9.795719961402938e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0002306786336703226</v>
+        <v>0.0001864591467892751</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.000146730657434091</v>
+        <v>5.405749834608287e-05</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0001055238681146875</v>
+        <v>6.303676491370425e-05</v>
       </c>
       <c r="DP12" t="n">
-        <v>3.304243000457063e-05</v>
+        <v>0.000366669031791389</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.0001314473338425159</v>
+        <v>0.0002672391710802913</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0001162730186479166</v>
+        <v>0.0002440823154756799</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0001404174254275858</v>
+        <v>0.0002537761174608022</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.483011798583902e-05</v>
+        <v>4.942637679050677e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.093177525035571e-05</v>
+        <v>3.059209848288447e-05</v>
       </c>
       <c r="DV12" t="n">
-        <v>5.581034201895818e-05</v>
+        <v>3.024833495146595e-05</v>
       </c>
       <c r="DW12" t="n">
-        <v>4.005665687145665e-05</v>
+        <v>3.93405971408356e-05</v>
       </c>
       <c r="DX12" t="n">
-        <v>3.764433859032579e-05</v>
+        <v>0.0004156583163421601</v>
       </c>
       <c r="DY12" t="n">
-        <v>4.36098052887246e-05</v>
+        <v>0.0002078880788758397</v>
       </c>
       <c r="DZ12" t="n">
-        <v>7.10843742126599e-05</v>
+        <v>6.727030267938972e-06</v>
       </c>
       <c r="EA12" t="n">
-        <v>7.808813825249672e-05</v>
+        <v>0.0003609322884585708</v>
       </c>
       <c r="EB12" t="n">
-        <v>1.039303060679231e-05</v>
+        <v>4.631440242519602e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>7.205571455415338e-05</v>
+        <v>0.0001002766075544059</v>
       </c>
       <c r="ED12" t="n">
-        <v>2.323059925402049e-05</v>
+        <v>3.576544258976355e-05</v>
       </c>
       <c r="EE12" t="n">
-        <v>5.227921064943075e-06</v>
+        <v>2.640197271830402e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0001050520077114925</v>
+        <v>0.0003832211659755558</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.0001816615258576348</v>
+        <v>0.0006472521345131099</v>
       </c>
       <c r="EH12" t="n">
-        <v>7.674143853364512e-05</v>
+        <v>3.540120451361872e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0001184389911941253</v>
+        <v>1.282730227103457e-05</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0002232348779216409</v>
+        <v>4.619421088136733e-05</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0001266845210921019</v>
+        <v>2.159756695618853e-05</v>
       </c>
       <c r="EL12" t="n">
-        <v>2.620510713313706e-05</v>
+        <v>0.0001016468595480546</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.0001655668893363327</v>
+        <v>0.0001358881127089262</v>
       </c>
       <c r="EN12" t="n">
-        <v>4.543782415566966e-05</v>
+        <v>3.283403202658519e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>6.330951873678714e-05</v>
+        <v>9.330290777143091e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>3.67708271369338e-05</v>
+        <v>5.421113746706396e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0001154946294263937</v>
+        <v>0.0004607366281561553</v>
       </c>
       <c r="ER12" t="n">
-        <v>8.861149399308488e-05</v>
+        <v>0.0003623258089646697</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0001433230354450643</v>
+        <v>2.883210800064262e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0001224147126777098</v>
+        <v>0.000149862389662303</v>
       </c>
       <c r="EU12" t="n">
-        <v>3.304990605101921e-05</v>
+        <v>0.0002211350365541875</v>
       </c>
       <c r="EV12" t="n">
-        <v>8.518377580912784e-05</v>
+        <v>0.0004465146630536765</v>
       </c>
       <c r="EW12" t="n">
-        <v>5.611465167021379e-05</v>
+        <v>0.0003069215454161167</v>
       </c>
       <c r="EX12" t="n">
-        <v>5.978214176138863e-05</v>
+        <v>6.902911991346627e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.0001505242544226348</v>
+        <v>0.0005298923351801932</v>
       </c>
       <c r="EZ12" t="n">
-        <v>8.777221955824643e-05</v>
+        <v>0.0001857876632129773</v>
       </c>
       <c r="FA12" t="n">
-        <v>9.711442544357851e-05</v>
+        <v>5.650417369906791e-05</v>
       </c>
       <c r="FB12" t="n">
-        <v>2.114321250701323e-05</v>
+        <v>1.515471922175493e-06</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0002418122749077156</v>
+        <v>8.809546125121415e-05</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.177504054794554e-05</v>
+        <v>0.0002072813222184777</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0001606292353244498</v>
+        <v>8.43853922560811e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>2.807701093843207e-05</v>
+        <v>4.25798752985429e-05</v>
       </c>
       <c r="FG12" t="n">
-        <v>3.238687713746913e-05</v>
+        <v>0.0001139033847721294</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0001796723809093237</v>
+        <v>2.313108052476309e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>2.835880877682939e-05</v>
+        <v>0.0003852691152133048</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.0001300534640904516</v>
+        <v>0.000282667635474354</v>
       </c>
       <c r="FK12" t="n">
-        <v>3.905388439306989e-06</v>
+        <v>0.0003843445447273552</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0001576952054165304</v>
+        <v>0.0001782843755790964</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.266735489480197e-05</v>
+        <v>9.614053124096245e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0001118734508054331</v>
+        <v>0.0001063381205312908</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0001858627219917253</v>
+        <v>0.0002776558394543827</v>
       </c>
       <c r="FP12" t="n">
-        <v>7.943810487631708e-05</v>
+        <v>0.0003997875028289855</v>
       </c>
       <c r="FQ12" t="n">
-        <v>3.374001244083047e-05</v>
+        <v>0.0005327918916009367</v>
       </c>
       <c r="FR12" t="n">
-        <v>3.14166936732363e-05</v>
+        <v>0.0004517521883826703</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.0003309244639240205</v>
+        <v>0.0001747551141306758</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0001145273636211641</v>
+        <v>8.574272214900702e-06</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.0005392748862504959</v>
+        <v>0.0001349357335129753</v>
       </c>
       <c r="FV12" t="n">
-        <v>6.957766890991479e-05</v>
+        <v>9.410592610947788e-06</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.000149650833918713</v>
+        <v>0.0001590175379533321</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0001491102448198944</v>
+        <v>0.0001024590310407802</v>
       </c>
       <c r="FY12" t="n">
-        <v>3.489705704851076e-05</v>
+        <v>0.0005127167096361518</v>
       </c>
       <c r="FZ12" t="n">
-        <v>1.879172123153694e-05</v>
+        <v>0.0001963107060873881</v>
       </c>
       <c r="GA12" t="n">
-        <v>4.239549525664188e-05</v>
+        <v>0.0001022866053972393</v>
       </c>
       <c r="GB12" t="n">
-        <v>8.210948726627976e-05</v>
+        <v>0.0001255335082532838</v>
       </c>
       <c r="GC12" t="n">
-        <v>1.138959305535536e-05</v>
+        <v>0.0002646413340698928</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0001351535029243678</v>
+        <v>0.0006028456846252084</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.0001921347284223884</v>
+        <v>0.000551949255168438</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0001368945522699505</v>
+        <v>0.0002710141707211733</v>
       </c>
       <c r="GG12" t="n">
-        <v>6.34138414170593e-05</v>
+        <v>0.0002056869125226513</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001881310250610113</v>
+        <v>5.408277502283454e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005764373112469912</v>
+        <v>0.001144577981904149</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001091284211724997</v>
+        <v>9.008905180962756e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002042618347331882</v>
+        <v>0.0006947661750018597</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001709177740849555</v>
+        <v>5.069307735539041e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007805327884852886</v>
+        <v>4.394125426188111e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002010959200561047</v>
+        <v>0.0001045923636411317</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002172230742871761</v>
+        <v>6.168438994791359e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002283256035298109</v>
+        <v>9.638263145461679e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001236485317349434</v>
+        <v>6.067461072234437e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005162942688912153</v>
+        <v>0.0009694110485725105</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006080639432184398</v>
+        <v>8.279030225821771e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001076669082976878</v>
+        <v>0.000673311878927052</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001052988111041486</v>
+        <v>0.0001623217685846612</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006571461446583271</v>
+        <v>0.0001244851591764018</v>
       </c>
       <c r="P13" t="n">
-        <v>0.000247761607170105</v>
+        <v>6.872281664982438e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.000418724084738642</v>
+        <v>0.0001188285095850006</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003090792335569859</v>
+        <v>3.286716673756018e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001234360737726092</v>
+        <v>9.661237709224224e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0004456087481230497</v>
+        <v>0.0001157778679043986</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001235897652804852</v>
+        <v>4.814170461031608e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001707360032014549</v>
+        <v>6.986539665376768e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0.002248271368443966</v>
+        <v>5.002252510166727e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0008964035077951849</v>
+        <v>6.906525959493592e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0001513314200565219</v>
+        <v>9.224587120115757e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.00185732077807188</v>
+        <v>0.0001025473902700469</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0005962135037407279</v>
+        <v>7.509566785302013e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001426220173016191</v>
+        <v>0.0001440609194105491</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0008460043463855982</v>
+        <v>0.0002688619133550674</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0004131881578359753</v>
+        <v>2.776504152279813e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.000870311981998384</v>
+        <v>5.474582212627865e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001331738429144025</v>
+        <v>7.280113641172647e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0006986728985793889</v>
+        <v>1.778182195266709e-06</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0007345336489379406</v>
+        <v>6.581076740985736e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0008066408918239176</v>
+        <v>3.272869889769936e-06</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0006463497993536294</v>
+        <v>1.876088936114684e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0001465559907956049</v>
+        <v>1.004842488327995e-06</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0003705464187078178</v>
+        <v>0.0001026326499413699</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0004275437095202506</v>
+        <v>3.369584737811238e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.185300976037979e-05</v>
+        <v>1.904312375700101e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.922914614435285e-05</v>
+        <v>9.567470988258719e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.001367417513392866</v>
+        <v>7.688267214689404e-05</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0001931522565428168</v>
+        <v>9.107147343456745e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0006183767109178007</v>
+        <v>3.750701216631569e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.000276022037724033</v>
+        <v>1.97563276742585e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.001135560218244791</v>
+        <v>0.0001280878495890647</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.002451410284265876</v>
+        <v>0.0007529962458647788</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0008057721424847841</v>
+        <v>0.000147232145536691</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0003168068360537291</v>
+        <v>0.0002528811746742576</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.836220225319266e-05</v>
+        <v>8.092340067378245e-06</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.004369826056063175</v>
+        <v>9.307084110332653e-05</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0002379629586357623</v>
+        <v>3.540968464221805e-06</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0001536149065941572</v>
+        <v>2.049924660241231e-05</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0007573442999273539</v>
+        <v>4.778729362442391e-06</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0007015562150627375</v>
+        <v>7.900441414676607e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.001199051621370018</v>
+        <v>0.0001844162325141951</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0001148135852417909</v>
+        <v>0.0002372921298956499</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.002214044565334916</v>
+        <v>0.0001060095382854342</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0007271624635905027</v>
+        <v>9.390039485879242e-05</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001373626524582505</v>
+        <v>0.0001248042972292751</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0005321689532138407</v>
+        <v>0.0001006188394967467</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.002032668795436621</v>
+        <v>9.555040014674887e-05</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.000174733140738681</v>
+        <v>3.926192948711105e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0008156103431247175</v>
+        <v>0.0001037265319610015</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0004722039157059044</v>
+        <v>7.688572077313438e-05</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0001829479006119072</v>
+        <v>0.0001340703893220052</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.001164243556559086</v>
+        <v>2.504306939954404e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0005601480370387435</v>
+        <v>0.0001828768581617624</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0002728404360823333</v>
+        <v>3.355937951710075e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0006848869379609823</v>
+        <v>7.222055864986032e-05</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.001008696854114532</v>
+        <v>3.513916453812271e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0005479014362208545</v>
+        <v>6.354720244416967e-05</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0006397956749424338</v>
+        <v>9.321197285316885e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.001457688398659229</v>
+        <v>0.0003723172703757882</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0003158204490318894</v>
+        <v>7.58103487896733e-05</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0002429021260468289</v>
+        <v>0.0001467454567318782</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0004850084078498185</v>
+        <v>9.746939031174406e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.002057038014754653</v>
+        <v>8.03125585662201e-05</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.435569720342755e-05</v>
+        <v>3.184370507369749e-05</v>
       </c>
       <c r="CB13" t="n">
-        <v>6.88698492012918e-07</v>
+        <v>2.852493344107643e-05</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.001557396957650781</v>
+        <v>4.956523116561584e-05</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0004714545793831348</v>
+        <v>1.779551348590758e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001012358698062599</v>
+        <v>0.0002104489394696429</v>
       </c>
       <c r="CF13" t="n">
-        <v>9.961763680621516e-06</v>
+        <v>4.779360097018071e-05</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.000415226852055639</v>
+        <v>8.778316987445578e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0003951980907004327</v>
+        <v>5.037145820097066e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.001123584690503776</v>
+        <v>2.628284164529759e-06</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001302728924201801</v>
+        <v>2.758344453468453e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>4.053823067806661e-05</v>
+        <v>1.210764730785741e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.00037677216459997</v>
+        <v>1.865256490418687e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.000419809075538069</v>
+        <v>0.0002451503823976964</v>
       </c>
       <c r="CN13" t="n">
-        <v>4.733148671220988e-05</v>
+        <v>0.0001330024970229715</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0001656219101278111</v>
+        <v>2.543839218560606e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0007547917193733156</v>
+        <v>0.0001797659060684964</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.001964956056326628</v>
+        <v>0.0001986244751606137</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.001342242350801826</v>
+        <v>8.762424840824679e-05</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0007911002612672746</v>
+        <v>0.0001025521123665385</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0001664091541897506</v>
+        <v>0.0001970319863175973</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0004964896361343563</v>
+        <v>6.278410182858352e-06</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0004884057561866939</v>
+        <v>7.947517588036135e-06</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.00120593945030123</v>
+        <v>0.0002094082883559167</v>
       </c>
       <c r="CX13" t="n">
-        <v>3.365368684171699e-05</v>
+        <v>8.124487794702873e-05</v>
       </c>
       <c r="CY13" t="n">
-        <v>5.714632425224409e-05</v>
+        <v>0.0001181604893645272</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0002018674567807466</v>
+        <v>5.459087697090581e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.001256784424185753</v>
+        <v>2.426704122626688e-05</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0001186789304483682</v>
+        <v>3.048015605600085e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0003201001090928912</v>
+        <v>2.07816392503446e-05</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0005018428200855851</v>
+        <v>5.655311724694911e-06</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0001580441457917914</v>
+        <v>0.0001391454425174743</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0009143400238826871</v>
+        <v>4.260542482370511e-05</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0005301526980474591</v>
+        <v>4.133553011342883e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0005205935449339449</v>
+        <v>0.000213533901842311</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.001301264623180032</v>
+        <v>5.458637315314263e-05</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0008806322002783418</v>
+        <v>9.841154678724706e-06</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001505327178165317</v>
+        <v>3.336417648824863e-06</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0005171505617909133</v>
+        <v>7.405684300465509e-05</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.001325589837506413</v>
+        <v>5.503986903931946e-05</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.001193431671708822</v>
+        <v>3.288207881269045e-05</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0003854393144138157</v>
+        <v>5.450794560601935e-05</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0003124010981991887</v>
+        <v>8.370215073227882e-05</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0005098520778119564</v>
+        <v>4.914311648462899e-05</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0001146239519584924</v>
+        <v>0.0001187483430840075</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.000148590377648361</v>
+        <v>1.548311593069229e-05</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.000188914462341927</v>
+        <v>3.700768138514832e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0007621969562023878</v>
+        <v>3.931271567125805e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0009978229645639658</v>
+        <v>5.714667349820957e-05</v>
       </c>
       <c r="DW13" t="n">
-        <v>4.653030191548169e-05</v>
+        <v>5.510651317308657e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0001305711339227855</v>
+        <v>0.0001728328206809238</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.000104280305095017</v>
+        <v>4.485156750888564e-06</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0004856747691519558</v>
+        <v>7.930225547170267e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0006075989222154021</v>
+        <v>8.215229900088161e-05</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0002454272762406617</v>
+        <v>4.11438086302951e-05</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0004254156665410846</v>
+        <v>5.013807458453812e-05</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0006152910646051168</v>
+        <v>3.238062345189974e-05</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.000728985236492008</v>
+        <v>1.787780274753459e-05</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0002762161893770099</v>
+        <v>1.017374597722664e-05</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0008947849273681641</v>
+        <v>0.0001916957553476095</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0008997456752695143</v>
+        <v>8.545852324459702e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0001177044614451006</v>
+        <v>0.0001491655712015927</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.001664655283093452</v>
+        <v>0.0001380762550979853</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.001104998169466853</v>
+        <v>4.005398295703344e-06</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0003334880457259715</v>
+        <v>2.095560557791032e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.000225446157855913</v>
+        <v>3.199244747520424e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0007461797213181853</v>
+        <v>1.641512972128112e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0002366563712712377</v>
+        <v>7.316655683098361e-06</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0003641368239186704</v>
+        <v>0.0002431073226034641</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0005714049329981208</v>
+        <v>8.969190093921497e-05</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0005164988106116652</v>
+        <v>5.141478322912008e-05</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0005592009983956814</v>
+        <v>3.195879253325984e-05</v>
       </c>
       <c r="ET13" t="n">
-        <v>6.187151302583516e-05</v>
+        <v>1.931770020746626e-05</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0005981642752885818</v>
+        <v>6.526082142954692e-05</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0001280554279219359</v>
+        <v>1.792196417227387e-05</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0001598654489498585</v>
+        <v>4.453399014892057e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0005856747156940401</v>
+        <v>3.679354631458409e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.001109882141463459</v>
+        <v>0.0002170478401239961</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0002839486696757376</v>
+        <v>4.544567127595656e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>3.730441676452756e-05</v>
+        <v>9.703264367999509e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.000365018961019814</v>
+        <v>3.322424890939146e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.001249924418516457</v>
+        <v>2.489359576429706e-05</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.000107881503936369</v>
+        <v>2.113794835167937e-05</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0001905879908008501</v>
+        <v>1.768958100001328e-06</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0004478520713746548</v>
+        <v>1.292607157665771e-05</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.00100916693918407</v>
+        <v>3.751036638277583e-05</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.001757539226673543</v>
+        <v>0.000140382515382953</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.001194528304040432</v>
+        <v>7.408091187244281e-05</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0001831171684898436</v>
+        <v>5.688206510967575e-05</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0002050370967481285</v>
+        <v>0.0001003846264211461</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.001486779539845884</v>
+        <v>4.422290294314735e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0002781288349069655</v>
+        <v>6.233585008885711e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.00044930589501746</v>
+        <v>5.101818169350736e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0001482602092437446</v>
+        <v>1.310609877691604e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0002185441262554377</v>
+        <v>0.0001237559772562236</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0007474065641872585</v>
+        <v>0.0001290381042053923</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.0003850413195323199</v>
+        <v>9.953112021321431e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.004335782025009394</v>
+        <v>6.117014709161595e-05</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001573726534843445</v>
+        <v>0.0001062958617694676</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.002683973405510187</v>
+        <v>0.0001173694327007979</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0004925968241877854</v>
+        <v>3.559636388672516e-05</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.001354736508801579</v>
+        <v>6.148120883153751e-05</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0002232035039924085</v>
+        <v>3.437186751398258e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.001014726236462593</v>
+        <v>8.293368591694161e-05</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0001779935846570879</v>
+        <v>5.901184340473264e-05</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0001569797750562429</v>
+        <v>3.358396497787908e-05</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0003476369311101735</v>
+        <v>5.542150029214099e-05</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.001215991331264377</v>
+        <v>3.633194137364626e-05</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0005491237388923764</v>
+        <v>0.0001386779767926782</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.001424472313374281</v>
+        <v>0.0001559835800435394</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0008722901111468673</v>
+        <v>5.881403922103345e-05</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0006779370014555752</v>
+        <v>9.901988232741132e-05</v>
       </c>
     </row>
     <row r="14">
@@ -8401,571 +8401,571 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.00427887262776494</v>
+        <v>1.550500201119576e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008171908557415009</v>
+        <v>0.0005127161275595427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01970908790826797</v>
+        <v>6.337924787658267e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01827691867947578</v>
+        <v>0.0001516618358436972</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007035091053694487</v>
+        <v>0.0001039557319018058</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05166439712047577</v>
+        <v>0.0002040562249021605</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01356635615229607</v>
+        <v>5.863129990757443e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05846679955720901</v>
+        <v>0.0001654067600611597</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01542925462126732</v>
+        <v>7.21042015356943e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005158241838216782</v>
+        <v>8.453101327177137e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001297246664762497</v>
+        <v>0.000461853458546102</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02493526600301266</v>
+        <v>4.308296047383919e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01781832613050938</v>
+        <v>5.423289985628799e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00683268066495657</v>
+        <v>5.222506842983421e-06</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04301279038190842</v>
+        <v>0.0002077783283311874</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00911656953394413</v>
+        <v>8.164947212208062e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05481306463479996</v>
+        <v>8.28352858661674e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01846113801002502</v>
+        <v>9.726442658575252e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.004427405539900064</v>
+        <v>1.385243649565382e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001653236802667379</v>
+        <v>4.34410831076093e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003109987359493971</v>
+        <v>3.263719554524869e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>0.005476568825542927</v>
+        <v>5.444062844617292e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01124740764498711</v>
+        <v>7.546448614448309e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01561799831688404</v>
+        <v>4.873979196418077e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.002829625271260738</v>
+        <v>3.223785461159423e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.002325610024854541</v>
+        <v>7.479009218513966e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.009065316990017891</v>
+        <v>5.217615398578346e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004217762034386396</v>
+        <v>1.85219178092666e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.00428133737295866</v>
+        <v>2.864547968783882e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.00614205002784729</v>
+        <v>5.46150331501849e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.005785112734884024</v>
+        <v>1.137517301685875e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01877259276807308</v>
+        <v>3.098430897807702e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.001667467760853469</v>
+        <v>3.695594386954326e-06</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.01880799606442451</v>
+        <v>1.238929326063953e-05</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.004878176841884851</v>
+        <v>5.594977483269759e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.004203140269964933</v>
+        <v>3.823877705144696e-06</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.0007560444064438343</v>
+        <v>6.711645983159542e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.007861040532588959</v>
+        <v>7.233830547193065e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.008187627419829369</v>
+        <v>8.763240657572169e-07</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0006519430316984653</v>
+        <v>3.026990088983439e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.01557414047420025</v>
+        <v>8.790449101070408e-06</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.00719357468187809</v>
+        <v>7.780272426316515e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.001849839696660638</v>
+        <v>3.534564893925563e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.001888943021185696</v>
+        <v>3.308145824121311e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.001740997191518545</v>
+        <v>5.850791421835311e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0009299350203946233</v>
+        <v>2.11060068977531e-06</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.01040200982242823</v>
+        <v>0.0003038653521798551</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.01087927166372538</v>
+        <v>5.091091952635907e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.002381470520049334</v>
+        <v>4.984075712854974e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.005463757086545229</v>
+        <v>6.034021498635411e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.02997786179184914</v>
+        <v>0.0001337895228061825</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.002323108725249767</v>
+        <v>0.0001140639142249711</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.02892833948135376</v>
+        <v>9.366867016069591e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.008025200106203556</v>
+        <v>9.217942715622485e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.003478301456198096</v>
+        <v>5.515677912626415e-06</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.005868838168680668</v>
+        <v>0.0001148059964179993</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.009213887155056</v>
+        <v>0.000111396650027018</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.01943791098892689</v>
+        <v>4.098389035789296e-05</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.007261424325406551</v>
+        <v>2.821465750457719e-05</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.005851371679455042</v>
+        <v>5.131209763931111e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.01173354499042034</v>
+        <v>4.04457314289175e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.01782691478729248</v>
+        <v>7.937414920888841e-05</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.003574250033125281</v>
+        <v>6.564881186932325e-05</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.006019053515046835</v>
+        <v>2.923755710071418e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.003890052903443575</v>
+        <v>5.302226418280043e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.007359154522418976</v>
+        <v>5.144297392689623e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.001089846948161721</v>
+        <v>2.097095057251863e-05</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.346106339246035e-05</v>
+        <v>9.34138097363757e-06</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.002995764138177037</v>
+        <v>2.747930557234213e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.009521902538836002</v>
+        <v>6.072054384276271e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.0009111899416893721</v>
+        <v>2.359173595323227e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.006743174046278</v>
+        <v>1.286608494410757e-05</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.007578202057629824</v>
+        <v>4.478342816582881e-06</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.005027834326028824</v>
+        <v>0.0001835147850215435</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.00248234486207366</v>
+        <v>6.831232167314738e-05</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.001020556315779686</v>
+        <v>4.874527803622186e-06</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.009597842581570148</v>
+        <v>4.175885260337964e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.01317976973950863</v>
+        <v>5.938156027696095e-05</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.007631786167621613</v>
+        <v>4.064586391905323e-07</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.01879769936203957</v>
+        <v>2.380634941800963e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.005670647136867046</v>
+        <v>6.062912871129811e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.004659414291381836</v>
+        <v>4.333895049057901e-06</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.01001689024269581</v>
+        <v>9.143551869783551e-05</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.005381014198064804</v>
+        <v>4.460943819140084e-05</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.005159772932529449</v>
+        <v>2.722478348005097e-05</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.002259267959743738</v>
+        <v>1.5124591300264e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.009042845107614994</v>
+        <v>1.248045191459823e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.001205274020321667</v>
+        <v>3.460405423538759e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.008452052250504494</v>
+        <v>2.234468774986453e-05</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.00160254118964076</v>
+        <v>4.904501838609576e-05</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.01279902085661888</v>
+        <v>6.316610233625397e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0008700831676833332</v>
+        <v>5.410677840700373e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.006093376781791449</v>
+        <v>1.369095298286993e-05</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.01057625468820333</v>
+        <v>0.0001347056968370453</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.02200476080179214</v>
+        <v>6.840496644144878e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.007506544701755047</v>
+        <v>6.915810809005052e-05</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.006361491978168488</v>
+        <v>9.991737169912085e-05</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.009143969975411892</v>
+        <v>6.914306140970439e-05</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.007070860825479031</v>
+        <v>3.706922143464908e-05</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.004304167348891497</v>
+        <v>4.805613116332097e-06</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.01450374349951744</v>
+        <v>8.137537952279672e-05</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.005586729850620031</v>
+        <v>4.979349614586681e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.003330697305500507</v>
+        <v>5.326647806214169e-05</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.003723805071786046</v>
+        <v>2.218765075667761e-05</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.009232260286808014</v>
+        <v>1.267427796847187e-05</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.000133541296236217</v>
+        <v>3.727547300513834e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.01151254214346409</v>
+        <v>4.259499837644398e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.002368953078985214</v>
+        <v>4.313770841690712e-05</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.007932727225124836</v>
+        <v>4.709084532805718e-05</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.004638916812837124</v>
+        <v>8.267715747933835e-05</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.005679621826857328</v>
+        <v>5.540507117984816e-06</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0116496505215764</v>
+        <v>0.0002361258084420115</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01155029982328415</v>
+        <v>0.0001252373185707256</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.01258105784654617</v>
+        <v>0.0001785626373020932</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.007766907103359699</v>
+        <v>7.847024244256318e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.003079690970480442</v>
+        <v>8.302400965476409e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.01016868930310011</v>
+        <v>7.895268936408684e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.00731905410066247</v>
+        <v>2.19997873500688e-05</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.00013848947128281</v>
+        <v>3.492371615720913e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.002920703496783972</v>
+        <v>4.08498672186397e-05</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.008196916431188583</v>
+        <v>1.452378364774631e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.002125338651239872</v>
+        <v>7.696282409597188e-06</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.004710773471742868</v>
+        <v>3.262631798861548e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.002936794655397534</v>
+        <v>4.44957877334673e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.001061913906596601</v>
+        <v>2.893889723054599e-05</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.00206792214885354</v>
+        <v>2.481209412508179e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.005598908290266991</v>
+        <v>1.562979196023662e-05</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0005095468368381262</v>
+        <v>2.909154864028096e-05</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.001222243998199701</v>
+        <v>5.810468428535387e-05</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.002057267352938652</v>
+        <v>3.435821054154076e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.002261670771986246</v>
+        <v>5.356703695724718e-06</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.002482312032952905</v>
+        <v>3.168445618939586e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.002166826510801911</v>
+        <v>6.247513738344423e-06</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.002774791792035103</v>
+        <v>2.282685454702005e-05</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.002297766041010618</v>
+        <v>7.910808926681057e-05</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.01212385017424822</v>
+        <v>2.399622280790936e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.01192043349146843</v>
+        <v>9.34709096327424e-05</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.005379117093980312</v>
+        <v>1.443707515136339e-05</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.004667967557907104</v>
+        <v>1.873192377388477e-05</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.002986112609505653</v>
+        <v>6.345194560708478e-05</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.002572288969531655</v>
+        <v>3.368274337844923e-05</v>
       </c>
       <c r="EL15" t="n">
-        <v>8.689431706443429e-05</v>
+        <v>4.337088466854766e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.01082182116806507</v>
+        <v>3.571959496184718e-06</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.003016820177435875</v>
+        <v>2.315322490176186e-05</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.002991028130054474</v>
+        <v>1.101165253203362e-06</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.008668716065585613</v>
+        <v>5.238272569840774e-05</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.005272791255265474</v>
+        <v>9.8613221780397e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.007101445458829403</v>
+        <v>9.846196189755574e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.01517020165920258</v>
+        <v>6.801622657803819e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0046989805996418</v>
+        <v>2.138650415872689e-05</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.002178699010983109</v>
+        <v>9.631617285776883e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.007706980220973492</v>
+        <v>0.0001037563342833892</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.0006591766141355038</v>
+        <v>7.995271516847424e-06</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.005201081279665232</v>
+        <v>1.623555817786837e-06</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.01298078708350658</v>
+        <v>7.884585647843778e-05</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.005170253105461597</v>
+        <v>3.979816028731875e-05</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.005190096329897642</v>
+        <v>1.582194636284839e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.005015821196138859</v>
+        <v>3.052682586712763e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.009227052330970764</v>
+        <v>1.422074547008378e-05</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.001075537991710007</v>
+        <v>6.408242916222662e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.01087865419685841</v>
+        <v>4.306792834540829e-05</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0002647286164574325</v>
+        <v>5.967739707557485e-05</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.005165803711861372</v>
+        <v>2.351411603740416e-05</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.01324980519711971</v>
+        <v>1.828174845286412e-06</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.002802630653604865</v>
+        <v>8.790862193563953e-05</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.004868155345320702</v>
+        <v>4.875326339970343e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.004553576000034809</v>
+        <v>1.437653918401338e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.01127100177109241</v>
+        <v>1.69077429745812e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0006432507652789354</v>
+        <v>4.077191624674015e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.006430337205529213</v>
+        <v>3.293580812169239e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.002855705330148339</v>
+        <v>4.139136945013888e-05</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.004746660590171814</v>
+        <v>4.008326504845172e-05</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.005876768846064806</v>
+        <v>2.855907223420218e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.001647647237405181</v>
+        <v>7.860719779273495e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.02176328748464584</v>
+        <v>8.9776556706056e-05</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0003649219870567322</v>
+        <v>7.26435609976761e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.02026067860424519</v>
+        <v>3.845117316814139e-05</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.000647135719191283</v>
+        <v>7.942298543639481e-05</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.01278846990317106</v>
+        <v>3.632399966591038e-06</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.00479127187281847</v>
+        <v>3.311339241918176e-05</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.002012664917856455</v>
+        <v>0.0001021419302560389</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.005137400701642036</v>
+        <v>2.034310637100134e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.00029949308373034</v>
+        <v>5.030962347518653e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0004638863611035049</v>
+        <v>3.197345722583123e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.002261398360133171</v>
+        <v>2.05206852115225e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0065308827906847</v>
+        <v>5.581208097282797e-05</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.005478216335177422</v>
+        <v>0.0001436285092495382</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.0007235158700495958</v>
+        <v>1.074353531294037e-05</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.00374473468400538</v>
+        <v>1.246677766175708e-05</v>
       </c>
     </row>
   </sheetData>
